--- a/2018_microbiomeModelingToolbox/resources/AGORA_infoFile.xlsx
+++ b/2018_microbiomeModelingToolbox/resources/AGORA_infoFile.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almut.heinken\Documents\GitHub\Microbiome_Toolbox\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almut.heinken/Documents/GitHub/fork-COBRA.papers/2018_microbiomeModelingToolbox/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24870" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="2707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="2708">
   <si>
     <t>Phylum</t>
   </si>
@@ -8145,6 +8151,9 @@
   </si>
   <si>
     <t>Yersinia</t>
+  </si>
+  <si>
+    <t>Proteus penneri</t>
   </si>
 </sst>
 </file>
@@ -8475,23 +8484,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B651" workbookViewId="0">
+      <selection activeCell="D662" sqref="D662"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1484</v>
       </c>
@@ -8517,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1486</v>
       </c>
@@ -8543,7 +8552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2532</v>
       </c>
@@ -8569,7 +8578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2536</v>
       </c>
@@ -8595,7 +8604,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1471</v>
       </c>
@@ -8621,7 +8630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1489</v>
       </c>
@@ -8647,7 +8656,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1492</v>
       </c>
@@ -8673,7 +8682,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2538</v>
       </c>
@@ -8699,7 +8708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1425</v>
       </c>
@@ -8725,7 +8734,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1427</v>
       </c>
@@ -8751,7 +8760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1428</v>
       </c>
@@ -8777,7 +8786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1494</v>
       </c>
@@ -8803,7 +8812,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1426</v>
       </c>
@@ -8829,7 +8838,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1430</v>
       </c>
@@ -8855,7 +8864,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1429</v>
       </c>
@@ -8881,7 +8890,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1432</v>
       </c>
@@ -8907,7 +8916,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1079</v>
       </c>
@@ -8933,7 +8942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1080</v>
       </c>
@@ -8959,7 +8968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1081</v>
       </c>
@@ -8985,7 +8994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1082</v>
       </c>
@@ -9011,7 +9020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1497</v>
       </c>
@@ -9037,7 +9046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1083</v>
       </c>
@@ -9063,7 +9072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1084</v>
       </c>
@@ -9089,7 +9098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1085</v>
       </c>
@@ -9115,7 +9124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1086</v>
       </c>
@@ -9141,7 +9150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2255</v>
       </c>
@@ -9167,7 +9176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1147</v>
       </c>
@@ -9193,7 +9202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1413</v>
       </c>
@@ -9219,7 +9228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1412</v>
       </c>
@@ -9245,7 +9254,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1448</v>
       </c>
@@ -9271,7 +9280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2486</v>
       </c>
@@ -9297,7 +9306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1411</v>
       </c>
@@ -9323,7 +9332,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1137</v>
       </c>
@@ -9349,7 +9358,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1433</v>
       </c>
@@ -9375,7 +9384,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2544</v>
       </c>
@@ -9401,7 +9410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1500</v>
       </c>
@@ -9427,7 +9436,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1322</v>
       </c>
@@ -9453,7 +9462,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1321</v>
       </c>
@@ -9479,7 +9488,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1301</v>
       </c>
@@ -9505,7 +9514,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1303</v>
       </c>
@@ -9531,7 +9540,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1304</v>
       </c>
@@ -9557,7 +9566,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2258</v>
       </c>
@@ -9583,7 +9592,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1302</v>
       </c>
@@ -9609,7 +9618,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1298</v>
       </c>
@@ -9635,7 +9644,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1505</v>
       </c>
@@ -9661,7 +9670,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1440</v>
       </c>
@@ -9687,7 +9696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1508</v>
       </c>
@@ -9713,7 +9722,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1330</v>
       </c>
@@ -9739,7 +9748,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1327</v>
       </c>
@@ -9765,7 +9774,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1511</v>
       </c>
@@ -9791,7 +9800,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1514</v>
       </c>
@@ -9817,7 +9826,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2261</v>
       </c>
@@ -9843,7 +9852,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1517</v>
       </c>
@@ -9869,7 +9878,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1519</v>
       </c>
@@ -9895,7 +9904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1206</v>
       </c>
@@ -9921,7 +9930,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1087</v>
       </c>
@@ -9947,7 +9956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1392</v>
       </c>
@@ -9973,7 +9982,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1090</v>
       </c>
@@ -9999,7 +10008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1386</v>
       </c>
@@ -10025,7 +10034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1387</v>
       </c>
@@ -10051,7 +10060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1388</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1148</v>
       </c>
@@ -10103,7 +10112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>2549</v>
       </c>
@@ -10129,7 +10138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>2552</v>
       </c>
@@ -10155,7 +10164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1153</v>
       </c>
@@ -10181,7 +10190,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1522</v>
       </c>
@@ -10207,7 +10216,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1525</v>
       </c>
@@ -10233,7 +10242,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1150</v>
       </c>
@@ -10259,7 +10268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1158</v>
       </c>
@@ -10285,7 +10294,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1155</v>
       </c>
@@ -10311,7 +10320,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1156</v>
       </c>
@@ -10337,7 +10346,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1163</v>
       </c>
@@ -10363,7 +10372,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1149</v>
       </c>
@@ -10389,7 +10398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1154</v>
       </c>
@@ -10415,7 +10424,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>2554</v>
       </c>
@@ -10441,7 +10450,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>2557</v>
       </c>
@@ -10467,7 +10476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2506</v>
       </c>
@@ -10493,7 +10502,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1161</v>
       </c>
@@ -10519,7 +10528,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1160</v>
       </c>
@@ -10545,7 +10554,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1152</v>
       </c>
@@ -10571,7 +10580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1151</v>
       </c>
@@ -10597,7 +10606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1159</v>
       </c>
@@ -10623,7 +10632,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>2562</v>
       </c>
@@ -10649,7 +10658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1157</v>
       </c>
@@ -10675,7 +10684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>2565</v>
       </c>
@@ -10701,7 +10710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>2568</v>
       </c>
@@ -10727,7 +10736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1162</v>
       </c>
@@ -10753,7 +10762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1527</v>
       </c>
@@ -10779,7 +10788,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1530</v>
       </c>
@@ -10805,7 +10814,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1256</v>
       </c>
@@ -10831,7 +10840,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1533</v>
       </c>
@@ -10857,7 +10866,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1536</v>
       </c>
@@ -10883,7 +10892,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1539</v>
       </c>
@@ -10909,7 +10918,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1542</v>
       </c>
@@ -10935,7 +10944,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1545</v>
       </c>
@@ -10961,7 +10970,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1260</v>
       </c>
@@ -10987,7 +10996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1547</v>
       </c>
@@ -11013,7 +11022,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1261</v>
       </c>
@@ -11039,7 +11048,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1550</v>
       </c>
@@ -11065,7 +11074,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1553</v>
       </c>
@@ -11091,7 +11100,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1555</v>
       </c>
@@ -11117,7 +11126,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1557</v>
       </c>
@@ -11143,7 +11152,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1258</v>
       </c>
@@ -11169,7 +11178,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1559</v>
       </c>
@@ -11195,7 +11204,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2507</v>
       </c>
@@ -11221,7 +11230,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1262</v>
       </c>
@@ -11247,7 +11256,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1257</v>
       </c>
@@ -11273,7 +11282,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1562</v>
       </c>
@@ -11299,7 +11308,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1565</v>
       </c>
@@ -11325,7 +11334,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1567</v>
       </c>
@@ -11351,7 +11360,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1569</v>
       </c>
@@ -11377,7 +11386,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1572</v>
       </c>
@@ -11403,7 +11412,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1263</v>
       </c>
@@ -11429,7 +11438,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>2508</v>
       </c>
@@ -11455,7 +11464,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1575</v>
       </c>
@@ -11481,7 +11490,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1577</v>
       </c>
@@ -11507,7 +11516,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1579</v>
       </c>
@@ -11533,7 +11542,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1583</v>
       </c>
@@ -11559,7 +11568,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1585</v>
       </c>
@@ -11585,7 +11594,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1587</v>
       </c>
@@ -11611,7 +11620,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1589</v>
       </c>
@@ -11637,7 +11646,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1581</v>
       </c>
@@ -11663,7 +11672,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1591</v>
       </c>
@@ -11689,7 +11698,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1593</v>
       </c>
@@ -11715,7 +11724,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1595</v>
       </c>
@@ -11741,7 +11750,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1597</v>
       </c>
@@ -11767,7 +11776,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1599</v>
       </c>
@@ -11793,7 +11802,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1601</v>
       </c>
@@ -11819,7 +11828,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1603</v>
       </c>
@@ -11845,7 +11854,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1605</v>
       </c>
@@ -11871,7 +11880,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1607</v>
       </c>
@@ -11897,7 +11906,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1609</v>
       </c>
@@ -11923,7 +11932,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1611</v>
       </c>
@@ -11949,7 +11958,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1613</v>
       </c>
@@ -11975,7 +11984,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1615</v>
       </c>
@@ -12001,7 +12010,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1618</v>
       </c>
@@ -12027,7 +12036,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1259</v>
       </c>
@@ -12053,7 +12062,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1621</v>
       </c>
@@ -12079,7 +12088,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1396</v>
       </c>
@@ -12105,7 +12114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1624</v>
       </c>
@@ -12131,7 +12140,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1627</v>
       </c>
@@ -12157,7 +12166,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1630</v>
       </c>
@@ -12183,7 +12192,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2308</v>
       </c>
@@ -12209,7 +12218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1632</v>
       </c>
@@ -12235,7 +12244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1635</v>
       </c>
@@ -12261,7 +12270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1638</v>
       </c>
@@ -12287,7 +12296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1641</v>
       </c>
@@ -12313,7 +12322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1644</v>
       </c>
@@ -12339,7 +12348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1646</v>
       </c>
@@ -12365,7 +12374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1648</v>
       </c>
@@ -12391,7 +12400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1650</v>
       </c>
@@ -12417,7 +12426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1652</v>
       </c>
@@ -12443,7 +12452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1654</v>
       </c>
@@ -12469,7 +12478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1656</v>
       </c>
@@ -12495,7 +12504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1659</v>
       </c>
@@ -12521,7 +12530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1661</v>
       </c>
@@ -12547,7 +12556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1663</v>
       </c>
@@ -12573,7 +12582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2487</v>
       </c>
@@ -12599,7 +12608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1665</v>
       </c>
@@ -12625,7 +12634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1668</v>
       </c>
@@ -12651,7 +12660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1670</v>
       </c>
@@ -12677,7 +12686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2488</v>
       </c>
@@ -12703,7 +12712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1673</v>
       </c>
@@ -12729,7 +12738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1676</v>
       </c>
@@ -12755,7 +12764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1091</v>
       </c>
@@ -12781,7 +12790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1679</v>
       </c>
@@ -12807,7 +12816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1682</v>
       </c>
@@ -12833,7 +12842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1686</v>
       </c>
@@ -12859,7 +12868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1688</v>
       </c>
@@ -12885,7 +12894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1690</v>
       </c>
@@ -12911,7 +12920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1692</v>
       </c>
@@ -12937,7 +12946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1694</v>
       </c>
@@ -12963,7 +12972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1696</v>
       </c>
@@ -12989,7 +12998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1698</v>
       </c>
@@ -13015,7 +13024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1684</v>
       </c>
@@ -13041,7 +13050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1092</v>
       </c>
@@ -13067,7 +13076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1700</v>
       </c>
@@ -13093,7 +13102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2498</v>
       </c>
@@ -13119,7 +13128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1093</v>
       </c>
@@ -13145,7 +13154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2509</v>
       </c>
@@ -13171,7 +13180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>2570</v>
       </c>
@@ -13197,7 +13206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2499</v>
       </c>
@@ -13223,7 +13232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1094</v>
       </c>
@@ -13249,7 +13258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1703</v>
       </c>
@@ -13275,7 +13284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1096</v>
       </c>
@@ -13301,7 +13310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1706</v>
       </c>
@@ -13327,7 +13336,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1709</v>
       </c>
@@ -13353,7 +13362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2425</v>
       </c>
@@ -13379,7 +13388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2288</v>
       </c>
@@ -13405,7 +13414,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2432</v>
       </c>
@@ -13431,7 +13440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1320</v>
       </c>
@@ -13457,7 +13466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1097</v>
       </c>
@@ -13483,7 +13492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1480</v>
       </c>
@@ -13509,7 +13518,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1138</v>
       </c>
@@ -13535,7 +13544,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>2572</v>
       </c>
@@ -13561,7 +13570,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1200</v>
       </c>
@@ -13587,7 +13596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1201</v>
       </c>
@@ -13613,7 +13622,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1202</v>
       </c>
@@ -13639,7 +13648,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1197</v>
       </c>
@@ -13665,7 +13674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1098</v>
       </c>
@@ -13691,7 +13700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1099</v>
       </c>
@@ -13717,7 +13726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1100</v>
       </c>
@@ -13743,7 +13752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1144</v>
       </c>
@@ -13769,7 +13778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1140</v>
       </c>
@@ -13795,7 +13804,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2510</v>
       </c>
@@ -13821,7 +13830,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1404</v>
       </c>
@@ -13847,7 +13856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1305</v>
       </c>
@@ -13873,7 +13882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1712</v>
       </c>
@@ -13899,7 +13908,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1365</v>
       </c>
@@ -13925,7 +13934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1274</v>
       </c>
@@ -13951,7 +13960,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1264</v>
       </c>
@@ -13977,7 +13986,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1714</v>
       </c>
@@ -14003,7 +14012,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1717</v>
       </c>
@@ -14029,7 +14038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1720</v>
       </c>
@@ -14055,7 +14064,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1723</v>
       </c>
@@ -14081,7 +14090,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1726</v>
       </c>
@@ -14107,7 +14116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1390</v>
       </c>
@@ -14133,7 +14142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1394</v>
       </c>
@@ -14159,7 +14168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1729</v>
       </c>
@@ -14185,7 +14194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2500</v>
       </c>
@@ -14211,7 +14220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1732</v>
       </c>
@@ -14237,7 +14246,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1735</v>
       </c>
@@ -14263,7 +14272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1737</v>
       </c>
@@ -14289,7 +14298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1739</v>
       </c>
@@ -14315,7 +14324,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1391</v>
       </c>
@@ -14341,7 +14350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1393</v>
       </c>
@@ -14367,7 +14376,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1395</v>
       </c>
@@ -14393,7 +14402,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1741</v>
       </c>
@@ -14419,7 +14428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2496</v>
       </c>
@@ -14445,7 +14454,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1407</v>
       </c>
@@ -14471,7 +14480,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1405</v>
       </c>
@@ -14497,7 +14506,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1406</v>
       </c>
@@ -14523,7 +14532,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1744</v>
       </c>
@@ -14549,7 +14558,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1461</v>
       </c>
@@ -14575,7 +14584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1339</v>
       </c>
@@ -14601,7 +14610,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1101</v>
       </c>
@@ -14627,7 +14636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1410</v>
       </c>
@@ -14653,7 +14662,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2489</v>
       </c>
@@ -14679,7 +14688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2511</v>
       </c>
@@ -14705,7 +14714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1441</v>
       </c>
@@ -14731,7 +14740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1747</v>
       </c>
@@ -14757,7 +14766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1750</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1752</v>
       </c>
@@ -14809,7 +14818,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1482</v>
       </c>
@@ -14835,7 +14844,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1755</v>
       </c>
@@ -14861,7 +14870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>2575</v>
       </c>
@@ -14887,7 +14896,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1757</v>
       </c>
@@ -14913,7 +14922,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1760</v>
       </c>
@@ -14939,7 +14948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>1374</v>
       </c>
@@ -14965,7 +14974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>2427</v>
       </c>
@@ -14991,7 +15000,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1763</v>
       </c>
@@ -15017,7 +15026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>1369</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>1370</v>
       </c>
@@ -15069,7 +15078,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>1371</v>
       </c>
@@ -15095,7 +15104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>1372</v>
       </c>
@@ -15121,7 +15130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2501</v>
       </c>
@@ -15147,7 +15156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>1373</v>
       </c>
@@ -15173,7 +15182,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2290</v>
       </c>
@@ -15199,7 +15208,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2264</v>
       </c>
@@ -15225,7 +15234,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>1367</v>
       </c>
@@ -15251,7 +15260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>1377</v>
       </c>
@@ -15277,7 +15286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>2512</v>
       </c>
@@ -15303,7 +15312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>1345</v>
       </c>
@@ -15329,7 +15338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>1358</v>
       </c>
@@ -15355,7 +15364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>1348</v>
       </c>
@@ -15381,7 +15390,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1766</v>
       </c>
@@ -15407,7 +15416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1769</v>
       </c>
@@ -15433,7 +15442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1771</v>
       </c>
@@ -15459,7 +15468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1773</v>
       </c>
@@ -15485,7 +15494,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>2513</v>
       </c>
@@ -15511,7 +15520,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>1346</v>
       </c>
@@ -15537,7 +15546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>1347</v>
       </c>
@@ -15563,7 +15572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1775</v>
       </c>
@@ -15589,7 +15598,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1778</v>
       </c>
@@ -15615,7 +15624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1341</v>
       </c>
@@ -15641,7 +15650,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1398</v>
       </c>
@@ -15667,7 +15676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1781</v>
       </c>
@@ -15693,7 +15702,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1336</v>
       </c>
@@ -15719,7 +15728,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1784</v>
       </c>
@@ -15745,7 +15754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1787</v>
       </c>
@@ -15771,7 +15780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1366</v>
       </c>
@@ -15797,7 +15806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1368</v>
       </c>
@@ -15823,7 +15832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1790</v>
       </c>
@@ -15849,7 +15858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1403</v>
       </c>
@@ -15875,7 +15884,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1375</v>
       </c>
@@ -15901,7 +15910,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1376</v>
       </c>
@@ -15927,7 +15936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1793</v>
       </c>
@@ -15953,7 +15962,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1356</v>
       </c>
@@ -15979,7 +15988,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1796</v>
       </c>
@@ -16005,7 +16014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1798</v>
       </c>
@@ -16031,7 +16040,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1800</v>
       </c>
@@ -16057,7 +16066,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1802</v>
       </c>
@@ -16083,7 +16092,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1804</v>
       </c>
@@ -16109,7 +16118,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1806</v>
       </c>
@@ -16135,7 +16144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1809</v>
       </c>
@@ -16161,7 +16170,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1364</v>
       </c>
@@ -16187,7 +16196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1352</v>
       </c>
@@ -16213,7 +16222,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1379</v>
       </c>
@@ -16239,7 +16248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1812</v>
       </c>
@@ -16265,7 +16274,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1814</v>
       </c>
@@ -16291,7 +16300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>2514</v>
       </c>
@@ -16317,7 +16326,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1359</v>
       </c>
@@ -16343,7 +16352,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1816</v>
       </c>
@@ -16369,7 +16378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1819</v>
       </c>
@@ -16395,7 +16404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1822</v>
       </c>
@@ -16421,7 +16430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1380</v>
       </c>
@@ -16447,7 +16456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>2578</v>
       </c>
@@ -16473,7 +16482,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1825</v>
       </c>
@@ -16499,7 +16508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1827</v>
       </c>
@@ -16525,7 +16534,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1340</v>
       </c>
@@ -16551,7 +16560,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1829</v>
       </c>
@@ -16577,7 +16586,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1832</v>
       </c>
@@ -16603,7 +16612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1102</v>
       </c>
@@ -16629,7 +16638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1103</v>
       </c>
@@ -16655,7 +16664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1104</v>
       </c>
@@ -16681,7 +16690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1105</v>
       </c>
@@ -16707,7 +16716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1106</v>
       </c>
@@ -16733,7 +16742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1107</v>
       </c>
@@ -16759,7 +16768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1112</v>
       </c>
@@ -16785,7 +16794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1108</v>
       </c>
@@ -16811,7 +16820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1109</v>
       </c>
@@ -16837,7 +16846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1110</v>
       </c>
@@ -16863,7 +16872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1111</v>
       </c>
@@ -16889,7 +16898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1420</v>
       </c>
@@ -16915,7 +16924,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1381</v>
       </c>
@@ -16941,7 +16950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1113</v>
       </c>
@@ -16967,7 +16976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1307</v>
       </c>
@@ -16993,7 +17002,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1116</v>
       </c>
@@ -17019,7 +17028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1389</v>
       </c>
@@ -17045,7 +17054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1835</v>
       </c>
@@ -17071,7 +17080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1838</v>
       </c>
@@ -17097,7 +17106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1476</v>
       </c>
@@ -17123,7 +17132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1477</v>
       </c>
@@ -17149,7 +17158,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1118</v>
       </c>
@@ -17175,7 +17184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1342</v>
       </c>
@@ -17201,7 +17210,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1840</v>
       </c>
@@ -17227,7 +17236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>2583</v>
       </c>
@@ -17253,7 +17262,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>2590</v>
       </c>
@@ -17279,7 +17288,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1272</v>
       </c>
@@ -17305,7 +17314,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1843</v>
       </c>
@@ -17331,7 +17340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1846</v>
       </c>
@@ -17357,7 +17366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2267</v>
       </c>
@@ -17383,7 +17392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1848</v>
       </c>
@@ -17409,7 +17418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1850</v>
       </c>
@@ -17435,7 +17444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>2515</v>
       </c>
@@ -17461,7 +17470,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1312</v>
       </c>
@@ -17487,7 +17496,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1422</v>
       </c>
@@ -17513,7 +17522,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1450</v>
       </c>
@@ -17539,7 +17548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1852</v>
       </c>
@@ -17565,7 +17574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1451</v>
       </c>
@@ -17591,7 +17600,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1417</v>
       </c>
@@ -17617,7 +17626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1418</v>
       </c>
@@ -17643,7 +17652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1855</v>
       </c>
@@ -17669,7 +17678,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1170</v>
       </c>
@@ -17695,7 +17704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1177</v>
       </c>
@@ -17721,7 +17730,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1175</v>
       </c>
@@ -17747,7 +17756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1173</v>
       </c>
@@ -17773,7 +17782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>2516</v>
       </c>
@@ -17799,7 +17808,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1176</v>
       </c>
@@ -17825,7 +17834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1178</v>
       </c>
@@ -17851,7 +17860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1857</v>
       </c>
@@ -17877,7 +17886,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1860</v>
       </c>
@@ -17903,7 +17912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1862</v>
       </c>
@@ -17929,7 +17938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1866</v>
       </c>
@@ -17955,7 +17964,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1864</v>
       </c>
@@ -17981,7 +17990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1868</v>
       </c>
@@ -18007,7 +18016,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1171</v>
       </c>
@@ -18033,7 +18042,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1172</v>
       </c>
@@ -18059,7 +18068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1174</v>
       </c>
@@ -18085,7 +18094,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1179</v>
       </c>
@@ -18111,7 +18120,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1871</v>
       </c>
@@ -18137,7 +18146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1873</v>
       </c>
@@ -18163,7 +18172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1875</v>
       </c>
@@ -18189,7 +18198,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1415</v>
       </c>
@@ -18215,7 +18224,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1416</v>
       </c>
@@ -18241,7 +18250,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1880</v>
       </c>
@@ -18267,7 +18276,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1882</v>
       </c>
@@ -18293,7 +18302,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1877</v>
       </c>
@@ -18319,7 +18328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1884</v>
       </c>
@@ -18345,7 +18354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1421</v>
       </c>
@@ -18371,7 +18380,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1414</v>
       </c>
@@ -18397,7 +18406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1886</v>
       </c>
@@ -18423,7 +18432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1888</v>
       </c>
@@ -18449,7 +18458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1890</v>
       </c>
@@ -18475,7 +18484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1892</v>
       </c>
@@ -18501,7 +18510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>2430</v>
       </c>
@@ -18527,7 +18536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1343</v>
       </c>
@@ -18553,7 +18562,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>2270</v>
       </c>
@@ -18579,7 +18588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1360</v>
       </c>
@@ -18605,7 +18614,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1895</v>
       </c>
@@ -18631,7 +18640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1338</v>
       </c>
@@ -18657,7 +18666,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1898</v>
       </c>
@@ -18683,7 +18692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1324</v>
       </c>
@@ -18709,7 +18718,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1323</v>
       </c>
@@ -18735,7 +18744,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>2273</v>
       </c>
@@ -18761,7 +18770,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1900</v>
       </c>
@@ -18787,7 +18796,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1903</v>
       </c>
@@ -18813,7 +18822,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1335</v>
       </c>
@@ -18839,7 +18848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1905</v>
       </c>
@@ -18865,7 +18874,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1908</v>
       </c>
@@ -18891,7 +18900,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1334</v>
       </c>
@@ -18917,7 +18926,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1910</v>
       </c>
@@ -18943,7 +18952,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>2490</v>
       </c>
@@ -18969,7 +18978,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1913</v>
       </c>
@@ -18995,7 +19004,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>2593</v>
       </c>
@@ -19021,7 +19030,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1915</v>
       </c>
@@ -19047,7 +19056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1350</v>
       </c>
@@ -19073,7 +19082,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1351</v>
       </c>
@@ -19099,7 +19108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1353</v>
       </c>
@@ -19125,7 +19134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1329</v>
       </c>
@@ -19151,7 +19160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1363</v>
       </c>
@@ -19177,7 +19186,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1920</v>
       </c>
@@ -19203,7 +19212,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1917</v>
       </c>
@@ -19229,7 +19238,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1922</v>
       </c>
@@ -19255,7 +19264,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1925</v>
       </c>
@@ -19281,7 +19290,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1928</v>
       </c>
@@ -19307,7 +19316,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1931</v>
       </c>
@@ -19333,7 +19342,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1933</v>
       </c>
@@ -19359,7 +19368,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>2595</v>
       </c>
@@ -19385,7 +19394,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1935</v>
       </c>
@@ -19411,7 +19420,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1937</v>
       </c>
@@ -19437,7 +19446,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1939</v>
       </c>
@@ -19463,7 +19472,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1941</v>
       </c>
@@ -19489,7 +19498,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1944</v>
       </c>
@@ -19515,7 +19524,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1408</v>
       </c>
@@ -19541,7 +19550,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1946</v>
       </c>
@@ -19567,7 +19576,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1948</v>
       </c>
@@ -19593,7 +19602,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1951</v>
       </c>
@@ -19619,7 +19628,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1167</v>
       </c>
@@ -19645,7 +19654,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>2526</v>
       </c>
@@ -19671,7 +19680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1165</v>
       </c>
@@ -19697,7 +19706,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1166</v>
       </c>
@@ -19723,7 +19732,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>2597</v>
       </c>
@@ -19749,7 +19758,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1164</v>
       </c>
@@ -19775,7 +19784,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1119</v>
       </c>
@@ -19801,7 +19810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1120</v>
       </c>
@@ -19827,7 +19836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>2491</v>
       </c>
@@ -19853,7 +19862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1954</v>
       </c>
@@ -19879,7 +19888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1168</v>
       </c>
@@ -19905,7 +19914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1169</v>
       </c>
@@ -19931,7 +19940,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1463</v>
       </c>
@@ -19957,7 +19966,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1431</v>
       </c>
@@ -19983,7 +19992,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>2601</v>
       </c>
@@ -20009,7 +20018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1434</v>
       </c>
@@ -20035,7 +20044,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1435</v>
       </c>
@@ -20061,7 +20070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1444</v>
       </c>
@@ -20087,7 +20096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1445</v>
       </c>
@@ -20113,7 +20122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1468</v>
       </c>
@@ -20139,7 +20148,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1957</v>
       </c>
@@ -20165,7 +20174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1960</v>
       </c>
@@ -20191,7 +20200,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1963</v>
       </c>
@@ -20217,7 +20226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1966</v>
       </c>
@@ -20243,7 +20252,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1969</v>
       </c>
@@ -20269,7 +20278,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1972</v>
       </c>
@@ -20295,7 +20304,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1975</v>
       </c>
@@ -20321,7 +20330,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1326</v>
       </c>
@@ -20347,7 +20356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1400</v>
       </c>
@@ -20373,7 +20382,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1313</v>
       </c>
@@ -20399,7 +20408,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>2604</v>
       </c>
@@ -20425,7 +20434,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1978</v>
       </c>
@@ -20451,7 +20460,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1981</v>
       </c>
@@ -20477,7 +20486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1454</v>
       </c>
@@ -20503,7 +20512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1122</v>
       </c>
@@ -20529,7 +20538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1121</v>
       </c>
@@ -20555,7 +20564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1210</v>
       </c>
@@ -20581,7 +20590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1117</v>
       </c>
@@ -20607,7 +20616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1378</v>
       </c>
@@ -20633,7 +20642,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1983</v>
       </c>
@@ -20659,7 +20668,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1985</v>
       </c>
@@ -20685,7 +20694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1987</v>
       </c>
@@ -20711,7 +20720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1990</v>
       </c>
@@ -20737,7 +20746,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1992</v>
       </c>
@@ -20763,7 +20772,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1181</v>
       </c>
@@ -20789,7 +20798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1191</v>
       </c>
@@ -20815,7 +20824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1995</v>
       </c>
@@ -20841,7 +20850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1998</v>
       </c>
@@ -20867,7 +20876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>2001</v>
       </c>
@@ -20893,7 +20902,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2003</v>
       </c>
@@ -20919,7 +20928,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>2006</v>
       </c>
@@ -20945,7 +20954,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2009</v>
       </c>
@@ -20971,7 +20980,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1180</v>
       </c>
@@ -20997,7 +21006,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1189</v>
       </c>
@@ -21023,7 +21032,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2011</v>
       </c>
@@ -21049,7 +21058,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1184</v>
       </c>
@@ -21075,7 +21084,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>2014</v>
       </c>
@@ -21101,7 +21110,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>2017</v>
       </c>
@@ -21127,7 +21136,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>2019</v>
       </c>
@@ -21153,7 +21162,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>2022</v>
       </c>
@@ -21179,7 +21188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>2024</v>
       </c>
@@ -21205,7 +21214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1186</v>
       </c>
@@ -21231,7 +21240,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>2027</v>
       </c>
@@ -21257,7 +21266,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>2030</v>
       </c>
@@ -21283,7 +21292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>2032</v>
       </c>
@@ -21309,7 +21318,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1192</v>
       </c>
@@ -21335,7 +21344,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1190</v>
       </c>
@@ -21361,7 +21370,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>2035</v>
       </c>
@@ -21387,7 +21396,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>2038</v>
       </c>
@@ -21413,7 +21422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1185</v>
       </c>
@@ -21439,7 +21448,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1183</v>
       </c>
@@ -21465,7 +21474,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2040</v>
       </c>
@@ -21491,7 +21500,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>2043</v>
       </c>
@@ -21517,7 +21526,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1187</v>
       </c>
@@ -21543,7 +21552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2048</v>
       </c>
@@ -21569,7 +21578,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>2045</v>
       </c>
@@ -21595,7 +21604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2050</v>
       </c>
@@ -21621,7 +21630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2052</v>
       </c>
@@ -21647,7 +21656,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2055</v>
       </c>
@@ -21673,7 +21682,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2057</v>
       </c>
@@ -21699,7 +21708,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2059</v>
       </c>
@@ -21725,7 +21734,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2061</v>
       </c>
@@ -21751,7 +21760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2063</v>
       </c>
@@ -21777,7 +21786,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2066</v>
       </c>
@@ -21803,7 +21812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2068</v>
       </c>
@@ -21829,7 +21838,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2071</v>
       </c>
@@ -21855,7 +21864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2074</v>
       </c>
@@ -21881,7 +21890,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2077</v>
       </c>
@@ -21907,7 +21916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2079</v>
       </c>
@@ -21933,7 +21942,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1188</v>
       </c>
@@ -21959,7 +21968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1253</v>
       </c>
@@ -21985,7 +21994,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>2609</v>
       </c>
@@ -22011,7 +22020,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1230</v>
       </c>
@@ -22037,7 +22046,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2082</v>
       </c>
@@ -22063,7 +22072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1306</v>
       </c>
@@ -22089,7 +22098,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2517</v>
       </c>
@@ -22115,7 +22124,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1409</v>
       </c>
@@ -22141,7 +22150,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1194</v>
       </c>
@@ -22167,7 +22176,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1193</v>
       </c>
@@ -22193,7 +22202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>2612</v>
       </c>
@@ -22219,7 +22228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2085</v>
       </c>
@@ -22245,7 +22254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2088</v>
       </c>
@@ -22271,7 +22280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2091</v>
       </c>
@@ -22297,7 +22306,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2094</v>
       </c>
@@ -22323,7 +22332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2098</v>
       </c>
@@ -22349,7 +22358,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2096</v>
       </c>
@@ -22375,7 +22384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2100</v>
       </c>
@@ -22401,7 +22410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2108</v>
       </c>
@@ -22427,7 +22436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2102</v>
       </c>
@@ -22453,7 +22462,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2104</v>
       </c>
@@ -22479,7 +22488,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2106</v>
       </c>
@@ -22505,7 +22514,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1208</v>
       </c>
@@ -22531,7 +22540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1207</v>
       </c>
@@ -22557,7 +22566,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2110</v>
       </c>
@@ -22583,7 +22592,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1478</v>
       </c>
@@ -22609,7 +22618,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2113</v>
       </c>
@@ -22635,7 +22644,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2276</v>
       </c>
@@ -22661,7 +22670,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2292</v>
       </c>
@@ -22687,7 +22696,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2616</v>
       </c>
@@ -22713,7 +22722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2492</v>
       </c>
@@ -22739,7 +22748,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2116</v>
       </c>
@@ -22765,7 +22774,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2493</v>
       </c>
@@ -22791,7 +22800,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2305</v>
       </c>
@@ -22817,7 +22826,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>1145</v>
       </c>
@@ -22843,7 +22852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>1142</v>
       </c>
@@ -22869,7 +22878,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1141</v>
       </c>
@@ -22895,7 +22904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1316</v>
       </c>
@@ -22921,7 +22930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1317</v>
       </c>
@@ -22947,7 +22956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1114</v>
       </c>
@@ -22973,7 +22982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2494</v>
       </c>
@@ -22999,7 +23008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>1115</v>
       </c>
@@ -23025,7 +23034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1123</v>
       </c>
@@ -23051,7 +23060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1128</v>
       </c>
@@ -23077,7 +23086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1474</v>
       </c>
@@ -23103,7 +23112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2119</v>
       </c>
@@ -23129,7 +23138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1088</v>
       </c>
@@ -23155,7 +23164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2622</v>
       </c>
@@ -23181,7 +23190,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1424</v>
       </c>
@@ -23207,7 +23216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1452</v>
       </c>
@@ -23233,7 +23242,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1129</v>
       </c>
@@ -23259,7 +23268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1130</v>
       </c>
@@ -23285,7 +23294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>2302</v>
       </c>
@@ -23311,7 +23320,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>2279</v>
       </c>
@@ -23337,7 +23346,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1308</v>
       </c>
@@ -23363,7 +23372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1311</v>
       </c>
@@ -23389,7 +23398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1310</v>
       </c>
@@ -23415,7 +23424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1315</v>
       </c>
@@ -23441,7 +23450,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1314</v>
       </c>
@@ -23467,7 +23476,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1309</v>
       </c>
@@ -23493,7 +23502,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1439</v>
       </c>
@@ -23519,7 +23528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1252</v>
       </c>
@@ -23545,7 +23554,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1139</v>
       </c>
@@ -23571,7 +23580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>2629</v>
       </c>
@@ -23597,7 +23606,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1273</v>
       </c>
@@ -23623,7 +23632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>2122</v>
       </c>
@@ -23649,7 +23658,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1382</v>
       </c>
@@ -23675,7 +23684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1383</v>
       </c>
@@ -23701,7 +23710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1344</v>
       </c>
@@ -23727,7 +23736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>2125</v>
       </c>
@@ -23753,7 +23762,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>2128</v>
       </c>
@@ -23779,7 +23788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1203</v>
       </c>
@@ -23805,7 +23814,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1205</v>
       </c>
@@ -23831,7 +23840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1204</v>
       </c>
@@ -23857,7 +23866,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1198</v>
       </c>
@@ -23883,7 +23892,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1199</v>
       </c>
@@ -23909,7 +23918,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>2632</v>
       </c>
@@ -23935,7 +23944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>2130</v>
       </c>
@@ -23961,7 +23970,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1275</v>
       </c>
@@ -23987,7 +23996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1265</v>
       </c>
@@ -24013,7 +24022,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>2133</v>
       </c>
@@ -24039,7 +24048,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>2136</v>
       </c>
@@ -24065,7 +24074,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>2139</v>
       </c>
@@ -24091,7 +24100,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1146</v>
       </c>
@@ -24117,7 +24126,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1300</v>
       </c>
@@ -24143,7 +24152,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1299</v>
       </c>
@@ -24169,7 +24178,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>1318</v>
       </c>
@@ -24195,7 +24204,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>2141</v>
       </c>
@@ -24221,7 +24230,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>2144</v>
       </c>
@@ -24247,7 +24256,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>2147</v>
       </c>
@@ -24273,7 +24282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1182</v>
       </c>
@@ -24299,7 +24308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1331</v>
       </c>
@@ -24325,7 +24334,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1332</v>
       </c>
@@ -24351,7 +24360,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1333</v>
       </c>
@@ -24377,7 +24386,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>1328</v>
       </c>
@@ -24403,7 +24412,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1355</v>
       </c>
@@ -24429,7 +24438,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1354</v>
       </c>
@@ -24455,7 +24464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>2149</v>
       </c>
@@ -24481,7 +24490,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1423</v>
       </c>
@@ -24507,7 +24516,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>1266</v>
       </c>
@@ -24533,7 +24542,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1270</v>
       </c>
@@ -24559,7 +24568,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>2152</v>
       </c>
@@ -24585,7 +24594,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1271</v>
       </c>
@@ -24611,7 +24620,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1268</v>
       </c>
@@ -24637,7 +24646,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1269</v>
       </c>
@@ -24663,7 +24672,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>1276</v>
       </c>
@@ -24689,7 +24698,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>1294</v>
       </c>
@@ -24715,7 +24724,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>1280</v>
       </c>
@@ -24741,7 +24750,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>1289</v>
       </c>
@@ -24767,7 +24776,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>1288</v>
       </c>
@@ -24793,7 +24802,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>1292</v>
       </c>
@@ -24819,7 +24828,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>1277</v>
       </c>
@@ -24845,7 +24854,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>2155</v>
       </c>
@@ -24871,7 +24880,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>1281</v>
       </c>
@@ -24897,7 +24906,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>1285</v>
       </c>
@@ -24923,7 +24932,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>1284</v>
       </c>
@@ -24949,7 +24958,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>1290</v>
       </c>
@@ -24975,7 +24984,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>2518</v>
       </c>
@@ -25001,7 +25010,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>1278</v>
       </c>
@@ -25027,7 +25036,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1286</v>
       </c>
@@ -25053,7 +25062,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>2519</v>
       </c>
@@ -25079,7 +25088,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>2520</v>
       </c>
@@ -25105,7 +25114,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>1283</v>
       </c>
@@ -25131,7 +25140,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1295</v>
       </c>
@@ -25157,7 +25166,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1296</v>
       </c>
@@ -25183,7 +25192,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>1297</v>
       </c>
@@ -25209,7 +25218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>1293</v>
       </c>
@@ -25235,7 +25244,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>1282</v>
       </c>
@@ -25261,7 +25270,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>2158</v>
       </c>
@@ -25287,7 +25296,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1279</v>
       </c>
@@ -25313,7 +25322,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>2299</v>
       </c>
@@ -25339,7 +25348,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>2521</v>
       </c>
@@ -25365,7 +25374,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1287</v>
       </c>
@@ -25391,7 +25400,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1291</v>
       </c>
@@ -25417,7 +25426,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1131</v>
       </c>
@@ -25443,7 +25452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1132</v>
       </c>
@@ -25469,7 +25478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1133</v>
       </c>
@@ -25495,7 +25504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>2282</v>
       </c>
@@ -25521,7 +25530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>2408</v>
       </c>
@@ -25547,7 +25556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>1134</v>
       </c>
@@ -25573,7 +25582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1135</v>
       </c>
@@ -25599,7 +25608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>2639</v>
       </c>
@@ -25625,7 +25634,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>2161</v>
       </c>
@@ -25633,7 +25642,7 @@
         <v>2160</v>
       </c>
       <c r="C660" t="s">
-        <v>1014</v>
+        <v>2707</v>
       </c>
       <c r="D660" t="s">
         <v>545</v>
@@ -25651,7 +25660,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>2163</v>
       </c>
@@ -25677,7 +25686,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>2166</v>
       </c>
@@ -25703,7 +25712,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>2169</v>
       </c>
@@ -25729,7 +25738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>2172</v>
       </c>
@@ -25755,7 +25764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>1349</v>
       </c>
@@ -25781,7 +25790,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>2175</v>
       </c>
@@ -25807,7 +25816,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>2178</v>
       </c>
@@ -25833,7 +25842,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1438</v>
       </c>
@@ -25859,7 +25868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="2" t="s">
         <v>2641</v>
       </c>
@@ -25885,7 +25894,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>2522</v>
       </c>
@@ -25911,7 +25920,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>2644</v>
       </c>
@@ -25937,7 +25946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>1436</v>
       </c>
@@ -25963,7 +25972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1437</v>
       </c>
@@ -25989,7 +25998,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
         <v>2646</v>
       </c>
@@ -26015,7 +26024,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="s">
         <v>2649</v>
       </c>
@@ -26041,7 +26050,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>1325</v>
       </c>
@@ -26067,7 +26076,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>1481</v>
       </c>
@@ -26093,7 +26102,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>2181</v>
       </c>
@@ -26119,7 +26128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>1442</v>
       </c>
@@ -26145,7 +26154,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>1136</v>
       </c>
@@ -26171,7 +26180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>2523</v>
       </c>
@@ -26197,7 +26206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
         <v>2653</v>
       </c>
@@ -26223,7 +26232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>2504</v>
       </c>
@@ -26249,7 +26258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>2285</v>
       </c>
@@ -26275,7 +26284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>2183</v>
       </c>
@@ -26301,7 +26310,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>2186</v>
       </c>
@@ -26327,7 +26336,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>1143</v>
       </c>
@@ -26353,7 +26362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>1124</v>
       </c>
@@ -26379,7 +26388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>1125</v>
       </c>
@@ -26405,7 +26414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>1126</v>
       </c>
@@ -26431,7 +26440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>2656</v>
       </c>
@@ -26457,7 +26466,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>2189</v>
       </c>
@@ -26483,7 +26492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>2524</v>
       </c>
@@ -26509,7 +26518,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>2296</v>
       </c>
@@ -26535,7 +26544,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>2191</v>
       </c>
@@ -26561,7 +26570,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>1357</v>
       </c>
@@ -26587,7 +26596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>2203</v>
       </c>
@@ -26613,7 +26622,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>1361</v>
       </c>
@@ -26639,7 +26648,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>1362</v>
       </c>
@@ -26665,7 +26674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>1337</v>
       </c>
@@ -26691,7 +26700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>2194</v>
       </c>
@@ -26717,7 +26726,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>2197</v>
       </c>
@@ -26743,7 +26752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>2200</v>
       </c>
@@ -26769,7 +26778,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>2206</v>
       </c>
@@ -26795,7 +26804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>2208</v>
       </c>
@@ -26821,7 +26830,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>2210</v>
       </c>
@@ -26847,7 +26856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>2213</v>
       </c>
@@ -26873,7 +26882,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>2215</v>
       </c>
@@ -26899,7 +26908,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>1095</v>
       </c>
@@ -26925,7 +26934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>2660</v>
       </c>
@@ -26951,7 +26960,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>1473</v>
       </c>
@@ -26977,7 +26986,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>1447</v>
       </c>
@@ -27003,7 +27012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>1453</v>
       </c>
@@ -27029,7 +27038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>2667</v>
       </c>
@@ -27055,7 +27064,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="2" t="s">
         <v>2670</v>
       </c>
@@ -27081,7 +27090,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" s="2" t="s">
         <v>2674</v>
       </c>
@@ -27107,7 +27116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" s="2" t="s">
         <v>2677</v>
       </c>
@@ -27133,7 +27142,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>1466</v>
       </c>
@@ -27159,7 +27168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>1384</v>
       </c>
@@ -27185,7 +27194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>1385</v>
       </c>
@@ -27211,7 +27220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>1401</v>
       </c>
@@ -27237,7 +27246,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>1402</v>
       </c>
@@ -27263,7 +27272,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" s="2" t="s">
         <v>2680</v>
       </c>
@@ -27289,7 +27298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>2686</v>
       </c>
@@ -27315,7 +27324,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>1224</v>
       </c>
@@ -27341,7 +27350,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" s="2" t="s">
         <v>2690</v>
       </c>
@@ -27367,7 +27376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>1222</v>
       </c>
@@ -27393,7 +27402,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>1223</v>
       </c>
@@ -27419,7 +27428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>1211</v>
       </c>
@@ -27445,7 +27454,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>1213</v>
       </c>
@@ -27471,7 +27480,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>1214</v>
       </c>
@@ -27497,7 +27506,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>1227</v>
       </c>
@@ -27523,7 +27532,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>1215</v>
       </c>
@@ -27549,7 +27558,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>1228</v>
       </c>
@@ -27575,7 +27584,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>1226</v>
       </c>
@@ -27601,7 +27610,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>1217</v>
       </c>
@@ -27627,7 +27636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>1219</v>
       </c>
@@ -27653,7 +27662,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>1221</v>
       </c>
@@ -27679,7 +27688,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>1216</v>
       </c>
@@ -27705,7 +27714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>1212</v>
       </c>
@@ -27731,7 +27740,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>1229</v>
       </c>
@@ -27757,7 +27766,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>1220</v>
       </c>
@@ -27783,7 +27792,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>1218</v>
       </c>
@@ -27809,7 +27818,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>2497</v>
       </c>
@@ -27835,7 +27844,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>1225</v>
       </c>
@@ -27861,7 +27870,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>1467</v>
       </c>
@@ -27887,7 +27896,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>2495</v>
       </c>
@@ -27913,7 +27922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>1399</v>
       </c>
@@ -27939,7 +27948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>1244</v>
       </c>
@@ -27965,7 +27974,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>2218</v>
       </c>
@@ -27991,7 +28000,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>1246</v>
       </c>
@@ -28017,7 +28026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>1234</v>
       </c>
@@ -28043,7 +28052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>1235</v>
       </c>
@@ -28069,7 +28078,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>1249</v>
       </c>
@@ -28095,7 +28104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>1245</v>
       </c>
@@ -28121,7 +28130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A756" s="2" t="s">
         <v>2693</v>
       </c>
@@ -28147,7 +28156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>2221</v>
       </c>
@@ -28173,7 +28182,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>1237</v>
       </c>
@@ -28199,7 +28208,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>1233</v>
       </c>
@@ -28225,7 +28234,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>2224</v>
       </c>
@@ -28251,7 +28260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>1247</v>
       </c>
@@ -28277,7 +28286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>1243</v>
       </c>
@@ -28303,7 +28312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>1255</v>
       </c>
@@ -28329,7 +28338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>1238</v>
       </c>
@@ -28355,7 +28364,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>1231</v>
       </c>
@@ -28381,7 +28390,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>1239</v>
       </c>
@@ -28407,7 +28416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>1242</v>
       </c>
@@ -28433,7 +28442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>1240</v>
       </c>
@@ -28459,7 +28468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>1248</v>
       </c>
@@ -28485,7 +28494,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>1397</v>
       </c>
@@ -28511,7 +28520,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" s="2" t="s">
         <v>2696</v>
       </c>
@@ -28537,7 +28546,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>1241</v>
       </c>
@@ -28563,7 +28572,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" s="2" t="s">
         <v>2699</v>
       </c>
@@ -28589,7 +28598,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>1254</v>
       </c>
@@ -28615,7 +28624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>1232</v>
       </c>
@@ -28641,7 +28650,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>2227</v>
       </c>
@@ -28667,7 +28676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>2229</v>
       </c>
@@ -28693,7 +28702,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>2231</v>
       </c>
@@ -28719,7 +28728,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>2233</v>
       </c>
@@ -28745,7 +28754,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>1251</v>
       </c>
@@ -28771,7 +28780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>1236</v>
       </c>
@@ -28797,7 +28806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>1250</v>
       </c>
@@ -28823,7 +28832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>2236</v>
       </c>
@@ -28849,7 +28858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>2239</v>
       </c>
@@ -28875,7 +28884,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>1446</v>
       </c>
@@ -28901,7 +28910,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>1483</v>
       </c>
@@ -28927,7 +28936,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>1319</v>
       </c>
@@ -28953,7 +28962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>2242</v>
       </c>
@@ -28979,7 +28988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>1267</v>
       </c>
@@ -29005,7 +29014,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>1443</v>
       </c>
@@ -29031,7 +29040,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>1455</v>
       </c>
@@ -29057,7 +29066,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>1127</v>
       </c>
@@ -29083,7 +29092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>2407</v>
       </c>
@@ -29109,7 +29118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>1469</v>
       </c>
@@ -29135,7 +29144,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>1470</v>
       </c>
@@ -29161,7 +29170,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>1209</v>
       </c>
@@ -29187,7 +29196,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>1089</v>
       </c>
@@ -29213,7 +29222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>1472</v>
       </c>
@@ -29239,7 +29248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>1475</v>
       </c>
@@ -29265,7 +29274,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>2245</v>
       </c>
@@ -29291,7 +29300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>1479</v>
       </c>
@@ -29317,7 +29326,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>2248</v>
       </c>
@@ -29343,7 +29352,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>2250</v>
       </c>
@@ -29369,7 +29378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>2485</v>
       </c>
@@ -29395,7 +29404,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>2702</v>
       </c>
@@ -29421,7 +29430,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>2705</v>
       </c>
@@ -29447,7 +29456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>1465</v>
       </c>
@@ -29473,7 +29482,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>1462</v>
       </c>
@@ -29499,7 +29508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>1464</v>
       </c>
@@ -29525,7 +29534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>1195</v>
       </c>
@@ -29551,7 +29560,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>1196</v>
       </c>
@@ -29577,7 +29586,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>2252</v>
       </c>
@@ -29603,7 +29612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>1456</v>
       </c>
@@ -29629,7 +29638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>1449</v>
       </c>
@@ -29655,7 +29664,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>1457</v>
       </c>
@@ -29681,7 +29690,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>1458</v>
       </c>
@@ -29707,7 +29716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>1419</v>
       </c>
@@ -29733,7 +29742,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>1459</v>
       </c>
@@ -29759,7 +29768,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>1460</v>
       </c>

--- a/2018_microbiomeModelingToolbox/resources/AGORA_infoFile.xlsx
+++ b/2018_microbiomeModelingToolbox/resources/AGORA_infoFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almut.heinken/Documents/GitHub/fork-COBRA.papers/2018_microbiomeModelingToolbox/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Almut Heinken\Documents\GitHub\cobratoolbox\papers\2018_microbiomeModelingToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F304608-B068-4E83-AFA0-A2029D169F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="10340"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20130" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="2708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6552" uniqueCount="2690">
   <si>
     <t>Phylum</t>
   </si>
@@ -7194,60 +7195,6 @@
   </si>
   <si>
     <t>Clostridium butyricum DSM 10702</t>
-  </si>
-  <si>
-    <t>unclassified Eggerthella</t>
-  </si>
-  <si>
-    <t>unclassified Enterococcus</t>
-  </si>
-  <si>
-    <t>unclassified Coprobacillus</t>
-  </si>
-  <si>
-    <t>unclassified Desulfovibrio</t>
-  </si>
-  <si>
-    <t>unclassified Clostridium</t>
-  </si>
-  <si>
-    <t>unclassified Citrobacter</t>
-  </si>
-  <si>
-    <t>unclassified Bacteroides</t>
-  </si>
-  <si>
-    <t>unclassified Anaerostipes</t>
-  </si>
-  <si>
-    <t>unclassified Acidaminococcus</t>
-  </si>
-  <si>
-    <t>unclassified Escherichia</t>
-  </si>
-  <si>
-    <t>unclassified Fusobacterium</t>
-  </si>
-  <si>
-    <t>unclassified Klebsiella</t>
-  </si>
-  <si>
-    <t>unclassified Parabacteroides</t>
-  </si>
-  <si>
-    <t>unclassified Ralstonia</t>
-  </si>
-  <si>
-    <t>unclassified Ruminococcus</t>
-  </si>
-  <si>
-    <t>unclassified Streptococcus</t>
-  </si>
-  <si>
-    <t>unclassified Veillonella</t>
-  </si>
-  <si>
-    <t>unclassified Melainabacterium</t>
   </si>
   <si>
     <t>Trueperella pyogenes MS249</t>
@@ -8159,7 +8106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8481,31 +8428,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B651" workbookViewId="0">
-      <selection activeCell="D662" sqref="D662"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1484</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2527</v>
+        <v>2509</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>679</v>
@@ -8526,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1486</v>
       </c>
@@ -8552,18 +8499,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2532</v>
+        <v>2514</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2531</v>
+        <v>2513</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2534</v>
+        <v>2516</v>
       </c>
       <c r="D3" t="s">
-        <v>2533</v>
+        <v>2515</v>
       </c>
       <c r="E3" t="s">
         <v>342</v>
@@ -8578,18 +8525,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2536</v>
+        <v>2518</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2535</v>
+        <v>2517</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2534</v>
+        <v>2516</v>
       </c>
       <c r="D4" t="s">
-        <v>2533</v>
+        <v>2515</v>
       </c>
       <c r="E4" t="s">
         <v>342</v>
@@ -8604,7 +8551,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1471</v>
       </c>
@@ -8621,7 +8568,7 @@
         <v>2313</v>
       </c>
       <c r="F5" t="s">
-        <v>2420</v>
+        <v>2402</v>
       </c>
       <c r="G5" t="s">
         <v>641</v>
@@ -8630,7 +8577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1489</v>
       </c>
@@ -8656,15 +8603,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1492</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="C7" t="s">
-        <v>2396</v>
+      <c r="C7" s="2" t="s">
+        <v>1491</v>
       </c>
       <c r="D7" t="s">
         <v>642</v>
@@ -8682,15 +8629,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2538</v>
+        <v>2520</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2537</v>
+        <v>2519</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2539</v>
+        <v>2521</v>
       </c>
       <c r="D8" t="s">
         <v>552</v>
@@ -8708,7 +8655,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1425</v>
       </c>
@@ -8734,7 +8681,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1427</v>
       </c>
@@ -8760,7 +8707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1428</v>
       </c>
@@ -8786,7 +8733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1494</v>
       </c>
@@ -8812,7 +8759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1426</v>
       </c>
@@ -8838,7 +8785,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1430</v>
       </c>
@@ -8864,7 +8811,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1429</v>
       </c>
@@ -8890,7 +8837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1432</v>
       </c>
@@ -8907,7 +8854,7 @@
         <v>561</v>
       </c>
       <c r="F16" t="s">
-        <v>2415</v>
+        <v>2397</v>
       </c>
       <c r="G16" t="s">
         <v>528</v>
@@ -8916,7 +8863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1079</v>
       </c>
@@ -8942,12 +8889,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1080</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2540</v>
+        <v>2522</v>
       </c>
       <c r="C18" t="s">
         <v>681</v>
@@ -8968,12 +8915,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1081</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2541</v>
+        <v>2523</v>
       </c>
       <c r="C19" t="s">
         <v>682</v>
@@ -8994,7 +8941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1082</v>
       </c>
@@ -9020,7 +8967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1497</v>
       </c>
@@ -9046,7 +8993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1083</v>
       </c>
@@ -9072,7 +9019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1084</v>
       </c>
@@ -9098,7 +9045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1085</v>
       </c>
@@ -9124,12 +9071,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1086</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2542</v>
+        <v>2524</v>
       </c>
       <c r="C25" t="s">
         <v>687</v>
@@ -9150,7 +9097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2255</v>
       </c>
@@ -9176,7 +9123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1147</v>
       </c>
@@ -9202,7 +9149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1413</v>
       </c>
@@ -9228,7 +9175,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1412</v>
       </c>
@@ -9254,7 +9201,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1448</v>
       </c>
@@ -9280,15 +9227,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2486</v>
+        <v>2468</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2440</v>
+        <v>2422</v>
       </c>
       <c r="C31" t="s">
-        <v>2469</v>
+        <v>2451</v>
       </c>
       <c r="D31" t="s">
         <v>530</v>
@@ -9306,7 +9253,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1411</v>
       </c>
@@ -9332,7 +9279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1137</v>
       </c>
@@ -9358,7 +9305,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1433</v>
       </c>
@@ -9375,7 +9322,7 @@
         <v>561</v>
       </c>
       <c r="F34" t="s">
-        <v>2415</v>
+        <v>2397</v>
       </c>
       <c r="G34" t="s">
         <v>528</v>
@@ -9384,21 +9331,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>2544</v>
+        <v>2526</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2543</v>
+        <v>2525</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2547</v>
+        <v>2529</v>
       </c>
       <c r="D35" t="s">
-        <v>2546</v>
+        <v>2528</v>
       </c>
       <c r="E35" t="s">
-        <v>2545</v>
+        <v>2527</v>
       </c>
       <c r="F35" t="s">
         <v>2324</v>
@@ -9410,7 +9357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1500</v>
       </c>
@@ -9436,7 +9383,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1322</v>
       </c>
@@ -9462,7 +9409,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1321</v>
       </c>
@@ -9488,7 +9435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1301</v>
       </c>
@@ -9514,7 +9461,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1303</v>
       </c>
@@ -9540,7 +9487,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1304</v>
       </c>
@@ -9566,7 +9513,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2258</v>
       </c>
@@ -9592,7 +9539,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1302</v>
       </c>
@@ -9618,7 +9565,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1298</v>
       </c>
@@ -9644,7 +9591,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1505</v>
       </c>
@@ -9670,7 +9617,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1440</v>
       </c>
@@ -9696,7 +9643,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1508</v>
       </c>
@@ -9722,12 +9669,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1330</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2421</v>
+        <v>2403</v>
       </c>
       <c r="C48" t="s">
         <v>924</v>
@@ -9739,16 +9686,16 @@
         <v>2319</v>
       </c>
       <c r="F48" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
       <c r="G48" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1327</v>
       </c>
@@ -9765,16 +9712,16 @@
         <v>2319</v>
       </c>
       <c r="F49" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
       <c r="G49" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H49" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1511</v>
       </c>
@@ -9800,7 +9747,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1514</v>
       </c>
@@ -9826,7 +9773,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2261</v>
       </c>
@@ -9852,15 +9799,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1517</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="C53" t="s">
-        <v>2395</v>
+      <c r="C53" s="2" t="s">
+        <v>1516</v>
       </c>
       <c r="D53" t="s">
         <v>2321</v>
@@ -9878,7 +9825,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1519</v>
       </c>
@@ -9904,7 +9851,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1206</v>
       </c>
@@ -9930,7 +9877,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1087</v>
       </c>
@@ -9956,7 +9903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1392</v>
       </c>
@@ -9982,7 +9929,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1090</v>
       </c>
@@ -10008,7 +9955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1386</v>
       </c>
@@ -10034,7 +9981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1387</v>
       </c>
@@ -10060,7 +10007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1388</v>
       </c>
@@ -10086,7 +10033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1148</v>
       </c>
@@ -10112,15 +10059,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>2549</v>
+        <v>2531</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2548</v>
+        <v>2530</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2550</v>
+        <v>2532</v>
       </c>
       <c r="D63" t="s">
         <v>136</v>
@@ -10138,15 +10085,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>2552</v>
+        <v>2534</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2551</v>
+        <v>2533</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2550</v>
+        <v>2532</v>
       </c>
       <c r="D64" t="s">
         <v>136</v>
@@ -10164,7 +10111,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1153</v>
       </c>
@@ -10190,7 +10137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1522</v>
       </c>
@@ -10216,7 +10163,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1525</v>
       </c>
@@ -10242,7 +10189,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1150</v>
       </c>
@@ -10268,7 +10215,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1158</v>
       </c>
@@ -10294,7 +10241,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1155</v>
       </c>
@@ -10320,7 +10267,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1156</v>
       </c>
@@ -10346,7 +10293,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1163</v>
       </c>
@@ -10372,7 +10319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1149</v>
       </c>
@@ -10398,7 +10345,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1154</v>
       </c>
@@ -10424,15 +10371,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>2554</v>
+        <v>2536</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2553</v>
+        <v>2535</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2555</v>
+        <v>2537</v>
       </c>
       <c r="D75" t="s">
         <v>136</v>
@@ -10450,15 +10397,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>2557</v>
+        <v>2539</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2556</v>
+        <v>2538</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>2558</v>
+        <v>2540</v>
       </c>
       <c r="D76" t="s">
         <v>136</v>
@@ -10476,9 +10423,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>2506</v>
+        <v>2488</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>149</v>
@@ -10502,12 +10449,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1161</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2559</v>
+        <v>2541</v>
       </c>
       <c r="C78" t="s">
         <v>760</v>
@@ -10528,7 +10475,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1160</v>
       </c>
@@ -10554,12 +10501,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2560</v>
+        <v>2542</v>
       </c>
       <c r="C80" t="s">
         <v>752</v>
@@ -10580,7 +10527,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1151</v>
       </c>
@@ -10606,7 +10553,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1159</v>
       </c>
@@ -10632,15 +10579,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>2562</v>
+        <v>2544</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2561</v>
+        <v>2543</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>2563</v>
+        <v>2545</v>
       </c>
       <c r="D83" t="s">
         <v>136</v>
@@ -10658,7 +10605,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1157</v>
       </c>
@@ -10684,15 +10631,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>2565</v>
+        <v>2547</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2564</v>
+        <v>2546</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>2566</v>
+        <v>2548</v>
       </c>
       <c r="D85" t="s">
         <v>136</v>
@@ -10710,12 +10657,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>2568</v>
+        <v>2550</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2567</v>
+        <v>2549</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>761</v>
@@ -10736,7 +10683,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1162</v>
       </c>
@@ -10762,7 +10709,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1527</v>
       </c>
@@ -10788,7 +10735,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1530</v>
       </c>
@@ -10814,7 +10761,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1256</v>
       </c>
@@ -10840,7 +10787,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1533</v>
       </c>
@@ -10866,7 +10813,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1536</v>
       </c>
@@ -10892,7 +10839,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1539</v>
       </c>
@@ -10918,7 +10865,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1542</v>
       </c>
@@ -10944,7 +10891,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1545</v>
       </c>
@@ -10970,7 +10917,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1260</v>
       </c>
@@ -10996,7 +10943,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1547</v>
       </c>
@@ -11022,7 +10969,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1261</v>
       </c>
@@ -11048,7 +10995,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1550</v>
       </c>
@@ -11074,7 +11021,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1553</v>
       </c>
@@ -11100,7 +11047,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1555</v>
       </c>
@@ -11126,7 +11073,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1557</v>
       </c>
@@ -11152,7 +11099,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1258</v>
       </c>
@@ -11178,7 +11125,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1559</v>
       </c>
@@ -11204,9 +11151,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2507</v>
+        <v>2489</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>285</v>
@@ -11230,7 +11177,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1262</v>
       </c>
@@ -11256,7 +11203,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1257</v>
       </c>
@@ -11282,7 +11229,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1562</v>
       </c>
@@ -11308,7 +11255,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1565</v>
       </c>
@@ -11334,7 +11281,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1567</v>
       </c>
@@ -11360,7 +11307,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1569</v>
       </c>
@@ -11386,7 +11333,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1572</v>
       </c>
@@ -11412,7 +11359,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1263</v>
       </c>
@@ -11438,9 +11385,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2508</v>
+        <v>2490</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>284</v>
@@ -11464,15 +11411,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1575</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>1574</v>
       </c>
-      <c r="C115" t="s">
-        <v>2394</v>
+      <c r="C115" s="2" t="s">
+        <v>1574</v>
       </c>
       <c r="D115" t="s">
         <v>277</v>
@@ -11490,15 +11437,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1577</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="C116" t="s">
-        <v>2394</v>
+      <c r="C116" s="2" t="s">
+        <v>1576</v>
       </c>
       <c r="D116" t="s">
         <v>277</v>
@@ -11516,15 +11463,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1579</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>1578</v>
       </c>
-      <c r="C117" t="s">
-        <v>2394</v>
+      <c r="C117" s="2" t="s">
+        <v>1578</v>
       </c>
       <c r="D117" t="s">
         <v>277</v>
@@ -11542,15 +11489,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1583</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="C118" t="s">
-        <v>2394</v>
+      <c r="C118" s="2" t="s">
+        <v>1582</v>
       </c>
       <c r="D118" t="s">
         <v>277</v>
@@ -11568,15 +11515,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1585</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="C119" t="s">
-        <v>2394</v>
+      <c r="C119" s="2" t="s">
+        <v>1584</v>
       </c>
       <c r="D119" t="s">
         <v>277</v>
@@ -11594,15 +11541,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1587</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="C120" t="s">
-        <v>2394</v>
+      <c r="C120" s="2" t="s">
+        <v>1586</v>
       </c>
       <c r="D120" t="s">
         <v>277</v>
@@ -11620,15 +11567,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1589</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="C121" t="s">
-        <v>2394</v>
+      <c r="C121" s="2" t="s">
+        <v>1588</v>
       </c>
       <c r="D121" t="s">
         <v>277</v>
@@ -11646,15 +11593,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1581</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="C122" t="s">
-        <v>2394</v>
+      <c r="C122" s="2" t="s">
+        <v>1580</v>
       </c>
       <c r="D122" t="s">
         <v>277</v>
@@ -11672,15 +11619,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1591</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="C123" t="s">
-        <v>2394</v>
+      <c r="C123" s="2" t="s">
+        <v>1590</v>
       </c>
       <c r="D123" t="s">
         <v>277</v>
@@ -11698,15 +11645,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1593</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="C124" t="s">
-        <v>2394</v>
+      <c r="C124" s="2" t="s">
+        <v>1592</v>
       </c>
       <c r="D124" t="s">
         <v>277</v>
@@ -11724,15 +11671,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1595</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>1594</v>
       </c>
-      <c r="C125" t="s">
-        <v>2394</v>
+      <c r="C125" s="2" t="s">
+        <v>1594</v>
       </c>
       <c r="D125" t="s">
         <v>277</v>
@@ -11750,15 +11697,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1597</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="C126" t="s">
-        <v>2394</v>
+      <c r="C126" s="2" t="s">
+        <v>1596</v>
       </c>
       <c r="D126" t="s">
         <v>277</v>
@@ -11776,15 +11723,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1599</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="C127" t="s">
-        <v>2394</v>
+      <c r="C127" s="2" t="s">
+        <v>1598</v>
       </c>
       <c r="D127" t="s">
         <v>277</v>
@@ -11802,15 +11749,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1601</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>1600</v>
       </c>
-      <c r="C128" t="s">
-        <v>2394</v>
+      <c r="C128" s="2" t="s">
+        <v>1600</v>
       </c>
       <c r="D128" t="s">
         <v>277</v>
@@ -11828,15 +11775,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1603</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="C129" t="s">
-        <v>2394</v>
+      <c r="C129" s="2" t="s">
+        <v>1602</v>
       </c>
       <c r="D129" t="s">
         <v>277</v>
@@ -11854,15 +11801,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1605</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="C130" t="s">
-        <v>2394</v>
+      <c r="C130" s="2" t="s">
+        <v>1604</v>
       </c>
       <c r="D130" t="s">
         <v>277</v>
@@ -11880,15 +11827,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1607</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="C131" t="s">
-        <v>2394</v>
+      <c r="C131" s="2" t="s">
+        <v>1606</v>
       </c>
       <c r="D131" t="s">
         <v>277</v>
@@ -11906,15 +11853,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1609</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C132" t="s">
-        <v>2394</v>
+      <c r="C132" s="2" t="s">
+        <v>1608</v>
       </c>
       <c r="D132" t="s">
         <v>277</v>
@@ -11932,15 +11879,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1611</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="C133" t="s">
-        <v>2394</v>
+      <c r="C133" s="2" t="s">
+        <v>1610</v>
       </c>
       <c r="D133" t="s">
         <v>277</v>
@@ -11958,15 +11905,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1613</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="C134" t="s">
-        <v>2394</v>
+      <c r="C134" s="2" t="s">
+        <v>1612</v>
       </c>
       <c r="D134" t="s">
         <v>277</v>
@@ -11984,7 +11931,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1615</v>
       </c>
@@ -12010,7 +11957,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1618</v>
       </c>
@@ -12036,7 +11983,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1259</v>
       </c>
@@ -12062,7 +12009,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1621</v>
       </c>
@@ -12088,7 +12035,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1396</v>
       </c>
@@ -12114,7 +12061,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1624</v>
       </c>
@@ -12140,7 +12087,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1627</v>
       </c>
@@ -12166,7 +12113,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1630</v>
       </c>
@@ -12192,7 +12139,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2308</v>
       </c>
@@ -12218,7 +12165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1632</v>
       </c>
@@ -12244,7 +12191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1635</v>
       </c>
@@ -12270,7 +12217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1638</v>
       </c>
@@ -12296,7 +12243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1641</v>
       </c>
@@ -12322,7 +12269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1644</v>
       </c>
@@ -12348,7 +12295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1646</v>
       </c>
@@ -12374,7 +12321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1648</v>
       </c>
@@ -12400,7 +12347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1650</v>
       </c>
@@ -12426,7 +12373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1652</v>
       </c>
@@ -12452,7 +12399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1654</v>
       </c>
@@ -12478,7 +12425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1656</v>
       </c>
@@ -12504,7 +12451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1659</v>
       </c>
@@ -12530,7 +12477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1661</v>
       </c>
@@ -12556,7 +12503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1663</v>
       </c>
@@ -12582,15 +12529,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2487</v>
+        <v>2469</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2457</v>
+        <v>2439</v>
       </c>
       <c r="C158" t="s">
-        <v>2480</v>
+        <v>2462</v>
       </c>
       <c r="D158" t="s">
         <v>24</v>
@@ -12608,7 +12555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1665</v>
       </c>
@@ -12634,7 +12581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1668</v>
       </c>
@@ -12660,7 +12607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1670</v>
       </c>
@@ -12686,15 +12633,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2488</v>
+        <v>2470</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2441</v>
+        <v>2423</v>
       </c>
       <c r="C162" t="s">
-        <v>2479</v>
+        <v>2461</v>
       </c>
       <c r="D162" t="s">
         <v>24</v>
@@ -12712,7 +12659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1673</v>
       </c>
@@ -12738,7 +12685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1676</v>
       </c>
@@ -12764,7 +12711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1091</v>
       </c>
@@ -12790,7 +12737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1679</v>
       </c>
@@ -12816,7 +12763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1682</v>
       </c>
@@ -12842,7 +12789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1686</v>
       </c>
@@ -12868,7 +12815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1688</v>
       </c>
@@ -12894,7 +12841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1690</v>
       </c>
@@ -12920,7 +12867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1692</v>
       </c>
@@ -12946,7 +12893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1694</v>
       </c>
@@ -12972,7 +12919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1696</v>
       </c>
@@ -12998,7 +12945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1698</v>
       </c>
@@ -13024,7 +12971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1684</v>
       </c>
@@ -13050,7 +12997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1092</v>
       </c>
@@ -13076,7 +13023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1700</v>
       </c>
@@ -13102,15 +13049,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>2498</v>
+        <v>2480</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2442</v>
+        <v>2424</v>
       </c>
       <c r="C178" t="s">
-        <v>2470</v>
+        <v>2452</v>
       </c>
       <c r="D178" t="s">
         <v>24</v>
@@ -13128,7 +13075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1093</v>
       </c>
@@ -13154,15 +13101,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>2509</v>
+        <v>2491</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2443</v>
+        <v>2425</v>
       </c>
       <c r="C180" t="s">
-        <v>2471</v>
+        <v>2453</v>
       </c>
       <c r="D180" t="s">
         <v>24</v>
@@ -13180,12 +13127,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>2570</v>
+        <v>2552</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2569</v>
+        <v>2551</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>695</v>
@@ -13206,15 +13153,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2499</v>
+        <v>2481</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2444</v>
+        <v>2426</v>
       </c>
       <c r="C182" t="s">
-        <v>2472</v>
+        <v>2454</v>
       </c>
       <c r="D182" t="s">
         <v>24</v>
@@ -13232,7 +13179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1094</v>
       </c>
@@ -13258,7 +13205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1703</v>
       </c>
@@ -13284,7 +13231,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1096</v>
       </c>
@@ -13310,7 +13257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1706</v>
       </c>
@@ -13336,7 +13283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1709</v>
       </c>
@@ -13362,12 +13309,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2425</v>
+        <v>2407</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>2424</v>
+        <v>2406</v>
       </c>
       <c r="C188" t="s">
         <v>1078</v>
@@ -13388,7 +13335,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2288</v>
       </c>
@@ -13414,12 +13361,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2432</v>
+        <v>2414</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>2431</v>
+        <v>2413</v>
       </c>
       <c r="C190" t="s">
         <v>933</v>
@@ -13440,7 +13387,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1320</v>
       </c>
@@ -13466,7 +13413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1097</v>
       </c>
@@ -13492,7 +13439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1480</v>
       </c>
@@ -13518,7 +13465,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1138</v>
       </c>
@@ -13544,15 +13491,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>2572</v>
+        <v>2554</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2571</v>
+        <v>2553</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>2573</v>
+        <v>2555</v>
       </c>
       <c r="D195" t="s">
         <v>107</v>
@@ -13570,7 +13517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1200</v>
       </c>
@@ -13596,7 +13543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1201</v>
       </c>
@@ -13622,7 +13569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1202</v>
       </c>
@@ -13648,7 +13595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1197</v>
       </c>
@@ -13674,7 +13621,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1098</v>
       </c>
@@ -13700,7 +13647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1099</v>
       </c>
@@ -13726,7 +13673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1100</v>
       </c>
@@ -13752,7 +13699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1144</v>
       </c>
@@ -13769,7 +13716,7 @@
         <v>115</v>
       </c>
       <c r="F203" t="s">
-        <v>2417</v>
+        <v>2399</v>
       </c>
       <c r="G203" t="s">
         <v>105</v>
@@ -13778,7 +13725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1140</v>
       </c>
@@ -13795,7 +13742,7 @@
         <v>115</v>
       </c>
       <c r="F204" t="s">
-        <v>2417</v>
+        <v>2399</v>
       </c>
       <c r="G204" t="s">
         <v>105</v>
@@ -13804,9 +13751,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>2510</v>
+        <v>2492</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>197</v>
@@ -13815,7 +13762,7 @@
         <v>797</v>
       </c>
       <c r="D205" t="s">
-        <v>2409</v>
+        <v>2391</v>
       </c>
       <c r="E205" t="s">
         <v>198</v>
@@ -13830,7 +13777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1404</v>
       </c>
@@ -13856,7 +13803,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1305</v>
       </c>
@@ -13867,7 +13814,7 @@
         <v>901</v>
       </c>
       <c r="D207" t="s">
-        <v>2410</v>
+        <v>2392</v>
       </c>
       <c r="E207" t="s">
         <v>344</v>
@@ -13882,15 +13829,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1712</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="C208" t="s">
-        <v>2330</v>
+      <c r="C208" s="2" t="s">
+        <v>1711</v>
       </c>
       <c r="D208" t="s">
         <v>2330</v>
@@ -13908,7 +13855,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1365</v>
       </c>
@@ -13934,7 +13881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1274</v>
       </c>
@@ -13960,7 +13907,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1264</v>
       </c>
@@ -13986,7 +13933,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1714</v>
       </c>
@@ -14012,7 +13959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1717</v>
       </c>
@@ -14038,7 +13985,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1720</v>
       </c>
@@ -14064,7 +14011,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1723</v>
       </c>
@@ -14090,7 +14037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1726</v>
       </c>
@@ -14116,7 +14063,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1390</v>
       </c>
@@ -14142,7 +14089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1394</v>
       </c>
@@ -14168,7 +14115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1729</v>
       </c>
@@ -14194,15 +14141,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2500</v>
+        <v>2482</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="C220" t="s">
-        <v>2473</v>
+        <v>2455</v>
       </c>
       <c r="D220" t="s">
         <v>487</v>
@@ -14220,7 +14167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1732</v>
       </c>
@@ -14246,7 +14193,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1735</v>
       </c>
@@ -14272,7 +14219,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1737</v>
       </c>
@@ -14298,7 +14245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1739</v>
       </c>
@@ -14324,7 +14271,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1391</v>
       </c>
@@ -14350,7 +14297,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1393</v>
       </c>
@@ -14376,7 +14323,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1395</v>
       </c>
@@ -14402,7 +14349,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1741</v>
       </c>
@@ -14428,33 +14375,33 @@
         <v>104</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2496</v>
+        <v>2478</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>2453</v>
+        <v>2435</v>
       </c>
       <c r="C229" t="s">
-        <v>2466</v>
+        <v>2448</v>
       </c>
       <c r="D229" t="s">
-        <v>2463</v>
+        <v>2445</v>
       </c>
       <c r="E229" t="s">
-        <v>2465</v>
+        <v>2447</v>
       </c>
       <c r="F229" t="s">
-        <v>2462</v>
+        <v>2444</v>
       </c>
       <c r="G229" t="s">
-        <v>2464</v>
+        <v>2446</v>
       </c>
       <c r="H229" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1407</v>
       </c>
@@ -14480,7 +14427,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1405</v>
       </c>
@@ -14506,7 +14453,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1406</v>
       </c>
@@ -14532,7 +14479,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1744</v>
       </c>
@@ -14558,7 +14505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1461</v>
       </c>
@@ -14584,7 +14531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1339</v>
       </c>
@@ -14610,7 +14557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1101</v>
       </c>
@@ -14636,7 +14583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1410</v>
       </c>
@@ -14662,15 +14609,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2489</v>
+        <v>2471</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>2446</v>
+        <v>2428</v>
       </c>
       <c r="C238" t="s">
-        <v>2474</v>
+        <v>2456</v>
       </c>
       <c r="D238" t="s">
         <v>581</v>
@@ -14688,9 +14635,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>2511</v>
+        <v>2493</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>580</v>
@@ -14714,7 +14661,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1441</v>
       </c>
@@ -14740,7 +14687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1747</v>
       </c>
@@ -14766,15 +14713,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1750</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="C242" t="s">
-        <v>2393</v>
+      <c r="C242" s="2" t="s">
+        <v>1749</v>
       </c>
       <c r="D242" t="s">
         <v>581</v>
@@ -14792,7 +14739,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1752</v>
       </c>
@@ -14818,7 +14765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1482</v>
       </c>
@@ -14844,15 +14791,15 @@
         <v>663</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1755</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="C245" t="s">
-        <v>2323</v>
+      <c r="C245" s="2" t="s">
+        <v>1754</v>
       </c>
       <c r="D245" t="s">
         <v>2323</v>
@@ -14870,15 +14817,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>2575</v>
+        <v>2557</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>2574</v>
+        <v>2556</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>2576</v>
+        <v>2558</v>
       </c>
       <c r="D246" t="s">
         <v>398</v>
@@ -14896,7 +14843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1757</v>
       </c>
@@ -14922,7 +14869,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1760</v>
       </c>
@@ -14948,7 +14895,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>1374</v>
       </c>
@@ -14974,18 +14921,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>2426</v>
+        <v>2408</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>951</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>2437</v>
+        <v>2419</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>423</v>
@@ -15000,7 +14947,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1763</v>
       </c>
@@ -15026,7 +14973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>1369</v>
       </c>
@@ -15052,7 +14999,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>1370</v>
       </c>
@@ -15078,7 +15025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>1371</v>
       </c>
@@ -15104,7 +15051,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>1372</v>
       </c>
@@ -15130,12 +15077,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2501</v>
+        <v>2483</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>2447</v>
+        <v>2429</v>
       </c>
       <c r="C256" t="s">
         <v>966</v>
@@ -15156,7 +15103,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>1373</v>
       </c>
@@ -15182,7 +15129,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2290</v>
       </c>
@@ -15208,7 +15155,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2264</v>
       </c>
@@ -15234,7 +15181,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>1367</v>
       </c>
@@ -15260,7 +15207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>1377</v>
       </c>
@@ -15286,9 +15233,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>2512</v>
+        <v>2494</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>435</v>
@@ -15312,7 +15259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>1345</v>
       </c>
@@ -15338,7 +15285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>1358</v>
       </c>
@@ -15364,7 +15311,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>1348</v>
       </c>
@@ -15390,7 +15337,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1766</v>
       </c>
@@ -15401,7 +15348,7 @@
         <v>1767</v>
       </c>
       <c r="D266" t="s">
-        <v>2528</v>
+        <v>2510</v>
       </c>
       <c r="E266" t="s">
         <v>423</v>
@@ -15416,7 +15363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1769</v>
       </c>
@@ -15427,7 +15374,7 @@
         <v>1767</v>
       </c>
       <c r="D267" t="s">
-        <v>2528</v>
+        <v>2510</v>
       </c>
       <c r="E267" t="s">
         <v>423</v>
@@ -15442,7 +15389,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1771</v>
       </c>
@@ -15453,7 +15400,7 @@
         <v>1767</v>
       </c>
       <c r="D268" t="s">
-        <v>2528</v>
+        <v>2510</v>
       </c>
       <c r="E268" t="s">
         <v>423</v>
@@ -15468,7 +15415,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1773</v>
       </c>
@@ -15479,7 +15426,7 @@
         <v>1767</v>
       </c>
       <c r="D269" t="s">
-        <v>2528</v>
+        <v>2510</v>
       </c>
       <c r="E269" t="s">
         <v>423</v>
@@ -15494,9 +15441,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>2513</v>
+        <v>2495</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>430</v>
@@ -15505,7 +15452,7 @@
         <v>952</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>2436</v>
+        <v>2418</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>423</v>
@@ -15520,7 +15467,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>1346</v>
       </c>
@@ -15531,7 +15478,7 @@
         <v>942</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>2435</v>
+        <v>2417</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>397</v>
@@ -15546,7 +15493,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>1347</v>
       </c>
@@ -15557,7 +15504,7 @@
         <v>942</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>2435</v>
+        <v>2417</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>397</v>
@@ -15572,7 +15519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1775</v>
       </c>
@@ -15583,7 +15530,7 @@
         <v>1776</v>
       </c>
       <c r="D273" t="s">
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="E273" t="s">
         <v>423</v>
@@ -15598,7 +15545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1778</v>
       </c>
@@ -15624,7 +15571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1341</v>
       </c>
@@ -15650,7 +15597,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1398</v>
       </c>
@@ -15676,7 +15623,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1781</v>
       </c>
@@ -15702,7 +15649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1336</v>
       </c>
@@ -15728,7 +15675,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1784</v>
       </c>
@@ -15754,7 +15701,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1787</v>
       </c>
@@ -15780,7 +15727,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1366</v>
       </c>
@@ -15806,7 +15753,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1368</v>
       </c>
@@ -15832,7 +15779,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1790</v>
       </c>
@@ -15858,7 +15805,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1403</v>
       </c>
@@ -15884,7 +15831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1375</v>
       </c>
@@ -15910,7 +15857,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1376</v>
       </c>
@@ -15936,7 +15883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1793</v>
       </c>
@@ -15962,7 +15909,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1356</v>
       </c>
@@ -15973,7 +15920,7 @@
         <v>950</v>
       </c>
       <c r="D288" t="s">
-        <v>2439</v>
+        <v>2421</v>
       </c>
       <c r="E288" t="s">
         <v>423</v>
@@ -15988,15 +15935,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C289" t="s">
-        <v>2392</v>
+        <v>1797</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>1797</v>
       </c>
       <c r="D289" t="s">
         <v>398</v>
@@ -16014,15 +15961,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C290" t="s">
-        <v>2392</v>
+        <v>1799</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1799</v>
       </c>
       <c r="D290" t="s">
         <v>398</v>
@@ -16040,15 +15987,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C291" t="s">
-        <v>2392</v>
+        <v>1795</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1795</v>
       </c>
       <c r="D291" t="s">
         <v>398</v>
@@ -16066,15 +16013,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1802</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="C292" t="s">
-        <v>2392</v>
+      <c r="C292" s="2" t="s">
+        <v>1801</v>
       </c>
       <c r="D292" t="s">
         <v>398</v>
@@ -16092,15 +16039,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1804</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="C293" t="s">
-        <v>2392</v>
+      <c r="C293" s="2" t="s">
+        <v>1803</v>
       </c>
       <c r="D293" t="s">
         <v>398</v>
@@ -16118,7 +16065,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1806</v>
       </c>
@@ -16144,7 +16091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1809</v>
       </c>
@@ -16170,7 +16117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1364</v>
       </c>
@@ -16196,7 +16143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1352</v>
       </c>
@@ -16207,7 +16154,7 @@
         <v>946</v>
       </c>
       <c r="D297" t="s">
-        <v>2530</v>
+        <v>2512</v>
       </c>
       <c r="E297" t="s">
         <v>423</v>
@@ -16222,7 +16169,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1379</v>
       </c>
@@ -16248,7 +16195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1812</v>
       </c>
@@ -16274,7 +16221,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1814</v>
       </c>
@@ -16300,9 +16247,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>2514</v>
+        <v>2496</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>456</v>
@@ -16326,7 +16273,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1359</v>
       </c>
@@ -16352,7 +16299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1816</v>
       </c>
@@ -16378,7 +16325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1819</v>
       </c>
@@ -16404,7 +16351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1822</v>
       </c>
@@ -16430,7 +16377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1380</v>
       </c>
@@ -16456,18 +16403,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>2578</v>
+        <v>2560</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>2577</v>
+        <v>2559</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>2580</v>
+        <v>2562</v>
       </c>
       <c r="D307" t="s">
-        <v>2579</v>
+        <v>2561</v>
       </c>
       <c r="E307" t="s">
         <v>348</v>
@@ -16482,15 +16429,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1825</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="C308" t="s">
-        <v>2390</v>
+      <c r="C308" s="2" t="s">
+        <v>1824</v>
       </c>
       <c r="D308" t="s">
         <v>2342</v>
@@ -16508,15 +16455,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1827</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>1826</v>
       </c>
-      <c r="C309" t="s">
-        <v>2390</v>
+      <c r="C309" s="2" t="s">
+        <v>1826</v>
       </c>
       <c r="D309" t="s">
         <v>2342</v>
@@ -16534,7 +16481,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1340</v>
       </c>
@@ -16560,7 +16507,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1829</v>
       </c>
@@ -16586,7 +16533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1832</v>
       </c>
@@ -16612,7 +16559,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1102</v>
       </c>
@@ -16623,7 +16570,7 @@
         <v>704</v>
       </c>
       <c r="D313" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E313" t="s">
         <v>46</v>
@@ -16638,7 +16585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1103</v>
       </c>
@@ -16649,7 +16596,7 @@
         <v>705</v>
       </c>
       <c r="D314" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E314" t="s">
         <v>46</v>
@@ -16664,7 +16611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1104</v>
       </c>
@@ -16675,7 +16622,7 @@
         <v>706</v>
       </c>
       <c r="D315" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E315" t="s">
         <v>46</v>
@@ -16690,7 +16637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1105</v>
       </c>
@@ -16701,7 +16648,7 @@
         <v>707</v>
       </c>
       <c r="D316" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E316" t="s">
         <v>46</v>
@@ -16716,7 +16663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1106</v>
       </c>
@@ -16727,7 +16674,7 @@
         <v>708</v>
       </c>
       <c r="D317" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E317" t="s">
         <v>46</v>
@@ -16742,7 +16689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1107</v>
       </c>
@@ -16753,7 +16700,7 @@
         <v>709</v>
       </c>
       <c r="D318" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E318" t="s">
         <v>46</v>
@@ -16768,7 +16715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1112</v>
       </c>
@@ -16779,7 +16726,7 @@
         <v>713</v>
       </c>
       <c r="D319" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E319" t="s">
         <v>46</v>
@@ -16794,7 +16741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1108</v>
       </c>
@@ -16805,7 +16752,7 @@
         <v>710</v>
       </c>
       <c r="D320" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E320" t="s">
         <v>46</v>
@@ -16820,7 +16767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1109</v>
       </c>
@@ -16831,7 +16778,7 @@
         <v>711</v>
       </c>
       <c r="D321" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E321" t="s">
         <v>46</v>
@@ -16846,7 +16793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1110</v>
       </c>
@@ -16857,7 +16804,7 @@
         <v>712</v>
       </c>
       <c r="D322" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E322" t="s">
         <v>46</v>
@@ -16872,7 +16819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1111</v>
       </c>
@@ -16883,7 +16830,7 @@
         <v>55</v>
       </c>
       <c r="D323" t="s">
-        <v>2581</v>
+        <v>2563</v>
       </c>
       <c r="E323" t="s">
         <v>46</v>
@@ -16898,7 +16845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1420</v>
       </c>
@@ -16924,7 +16871,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1381</v>
       </c>
@@ -16950,7 +16897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1113</v>
       </c>
@@ -16976,7 +16923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1307</v>
       </c>
@@ -17002,7 +16949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1116</v>
       </c>
@@ -17028,7 +16975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1389</v>
       </c>
@@ -17054,7 +17001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1835</v>
       </c>
@@ -17080,15 +17027,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1838</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C331" t="s">
-        <v>2391</v>
+      <c r="C331" s="2" t="s">
+        <v>1837</v>
       </c>
       <c r="D331" t="s">
         <v>482</v>
@@ -17106,7 +17053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1476</v>
       </c>
@@ -17123,7 +17070,7 @@
         <v>644</v>
       </c>
       <c r="F332" t="s">
-        <v>2428</v>
+        <v>2410</v>
       </c>
       <c r="G332" t="s">
         <v>641</v>
@@ -17132,7 +17079,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1477</v>
       </c>
@@ -17149,7 +17096,7 @@
         <v>644</v>
       </c>
       <c r="F333" t="s">
-        <v>2428</v>
+        <v>2410</v>
       </c>
       <c r="G333" t="s">
         <v>641</v>
@@ -17158,7 +17105,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1118</v>
       </c>
@@ -17184,7 +17131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1342</v>
       </c>
@@ -17210,7 +17157,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1840</v>
       </c>
@@ -17236,59 +17183,59 @@
         <v>130</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2583</v>
+        <v>2565</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>2582</v>
+        <v>2564</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>2588</v>
+        <v>2570</v>
       </c>
       <c r="D337" t="s">
-        <v>2587</v>
+        <v>2569</v>
       </c>
       <c r="E337" t="s">
-        <v>2586</v>
+        <v>2568</v>
       </c>
       <c r="F337" t="s">
-        <v>2585</v>
+        <v>2567</v>
       </c>
       <c r="G337" t="s">
-        <v>2584</v>
+        <v>2566</v>
       </c>
       <c r="H337" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>2590</v>
+        <v>2572</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>2589</v>
+        <v>2571</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>2591</v>
+        <v>2573</v>
       </c>
       <c r="D338" t="s">
-        <v>2587</v>
+        <v>2569</v>
       </c>
       <c r="E338" t="s">
-        <v>2586</v>
+        <v>2568</v>
       </c>
       <c r="F338" t="s">
-        <v>2585</v>
+        <v>2567</v>
       </c>
       <c r="G338" t="s">
-        <v>2584</v>
+        <v>2566</v>
       </c>
       <c r="H338" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1272</v>
       </c>
@@ -17314,7 +17261,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1843</v>
       </c>
@@ -17340,7 +17287,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1846</v>
       </c>
@@ -17366,7 +17313,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2267</v>
       </c>
@@ -17392,15 +17339,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1848</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>1847</v>
       </c>
-      <c r="C343" t="s">
-        <v>2388</v>
+      <c r="C343" s="2" t="s">
+        <v>1847</v>
       </c>
       <c r="D343" t="s">
         <v>2346</v>
@@ -17418,15 +17365,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1850</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>1849</v>
       </c>
-      <c r="C344" t="s">
-        <v>2388</v>
+      <c r="C344" s="2" t="s">
+        <v>1849</v>
       </c>
       <c r="D344" t="s">
         <v>2346</v>
@@ -17444,9 +17391,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2515</v>
+        <v>2497</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>497</v>
@@ -17470,7 +17417,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1312</v>
       </c>
@@ -17496,7 +17443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1422</v>
       </c>
@@ -17522,7 +17469,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1450</v>
       </c>
@@ -17548,7 +17495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1852</v>
       </c>
@@ -17574,7 +17521,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1451</v>
       </c>
@@ -17600,7 +17547,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1417</v>
       </c>
@@ -17626,7 +17573,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1418</v>
       </c>
@@ -17652,15 +17599,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1855</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="C353" t="s">
-        <v>2347</v>
+      <c r="C353" s="2" t="s">
+        <v>1854</v>
       </c>
       <c r="D353" t="s">
         <v>2347</v>
@@ -17678,7 +17625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1170</v>
       </c>
@@ -17704,7 +17651,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1177</v>
       </c>
@@ -17730,7 +17677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1175</v>
       </c>
@@ -17756,7 +17703,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1173</v>
       </c>
@@ -17782,9 +17729,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>2516</v>
+        <v>2498</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>174</v>
@@ -17808,7 +17755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1176</v>
       </c>
@@ -17834,7 +17781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1178</v>
       </c>
@@ -17860,7 +17807,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1857</v>
       </c>
@@ -17886,7 +17833,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1860</v>
       </c>
@@ -17912,7 +17859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1862</v>
       </c>
@@ -17938,7 +17885,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1866</v>
       </c>
@@ -17964,7 +17911,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1864</v>
       </c>
@@ -17990,7 +17937,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1868</v>
       </c>
@@ -18016,7 +17963,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1171</v>
       </c>
@@ -18042,7 +17989,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1172</v>
       </c>
@@ -18068,7 +18015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1174</v>
       </c>
@@ -18094,7 +18041,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1179</v>
       </c>
@@ -18120,15 +18067,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1871</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>1870</v>
       </c>
-      <c r="C371" t="s">
-        <v>2389</v>
+      <c r="C371" s="2" t="s">
+        <v>1870</v>
       </c>
       <c r="D371" t="s">
         <v>163</v>
@@ -18146,15 +18093,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1873</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C372" t="s">
-        <v>2348</v>
+      <c r="C372" s="2" t="s">
+        <v>1872</v>
       </c>
       <c r="D372" t="s">
         <v>2348</v>
@@ -18172,15 +18119,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1875</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="C373" t="s">
-        <v>2348</v>
+      <c r="C373" s="2" t="s">
+        <v>1874</v>
       </c>
       <c r="D373" t="s">
         <v>2348</v>
@@ -18198,7 +18145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1415</v>
       </c>
@@ -18224,7 +18171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1416</v>
       </c>
@@ -18250,7 +18197,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1880</v>
       </c>
@@ -18276,7 +18223,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1882</v>
       </c>
@@ -18302,7 +18249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1877</v>
       </c>
@@ -18328,7 +18275,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1884</v>
       </c>
@@ -18354,7 +18301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1421</v>
       </c>
@@ -18380,7 +18327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1414</v>
       </c>
@@ -18406,15 +18353,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1886</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="C382" t="s">
-        <v>2397</v>
+      <c r="C382" s="2" t="s">
+        <v>1885</v>
       </c>
       <c r="D382" t="s">
         <v>537</v>
@@ -18432,15 +18379,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1888</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="C383" t="s">
-        <v>2397</v>
+      <c r="C383" s="2" t="s">
+        <v>1887</v>
       </c>
       <c r="D383" t="s">
         <v>537</v>
@@ -18458,15 +18405,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1890</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="C384" t="s">
-        <v>2397</v>
+      <c r="C384" s="2" t="s">
+        <v>1889</v>
       </c>
       <c r="D384" t="s">
         <v>537</v>
@@ -18484,7 +18431,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1892</v>
       </c>
@@ -18510,12 +18457,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>2430</v>
+        <v>2412</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>2429</v>
+        <v>2411</v>
       </c>
       <c r="C386" t="s">
         <v>930</v>
@@ -18524,7 +18471,7 @@
         <v>379</v>
       </c>
       <c r="E386" t="s">
-        <v>2503</v>
+        <v>2485</v>
       </c>
       <c r="F386" t="s">
         <v>676</v>
@@ -18536,7 +18483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1343</v>
       </c>
@@ -18562,7 +18509,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2270</v>
       </c>
@@ -18588,7 +18535,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1360</v>
       </c>
@@ -18614,7 +18561,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1895</v>
       </c>
@@ -18640,7 +18587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1338</v>
       </c>
@@ -18666,7 +18613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1898</v>
       </c>
@@ -18692,7 +18639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1324</v>
       </c>
@@ -18718,7 +18665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1323</v>
       </c>
@@ -18744,7 +18691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>2273</v>
       </c>
@@ -18770,7 +18717,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1900</v>
       </c>
@@ -18796,7 +18743,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1903</v>
       </c>
@@ -18822,7 +18769,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1335</v>
       </c>
@@ -18836,7 +18783,7 @@
         <v>379</v>
       </c>
       <c r="E398" t="s">
-        <v>2503</v>
+        <v>2485</v>
       </c>
       <c r="F398" t="s">
         <v>676</v>
@@ -18848,7 +18795,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1905</v>
       </c>
@@ -18874,7 +18821,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1908</v>
       </c>
@@ -18900,7 +18847,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1334</v>
       </c>
@@ -18914,7 +18861,7 @@
         <v>379</v>
       </c>
       <c r="E401" t="s">
-        <v>2503</v>
+        <v>2485</v>
       </c>
       <c r="F401" t="s">
         <v>676</v>
@@ -18926,7 +18873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1910</v>
       </c>
@@ -18952,21 +18899,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>2490</v>
+        <v>2472</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>2448</v>
+        <v>2430</v>
       </c>
       <c r="C403" t="s">
-        <v>2475</v>
+        <v>2457</v>
       </c>
       <c r="D403" t="s">
-        <v>2458</v>
+        <v>2440</v>
       </c>
       <c r="E403" t="s">
-        <v>2502</v>
+        <v>2484</v>
       </c>
       <c r="F403" t="s">
         <v>675</v>
@@ -18978,7 +18925,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1913</v>
       </c>
@@ -19004,12 +18951,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>2593</v>
+        <v>2575</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>2592</v>
+        <v>2574</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>945</v>
@@ -19030,7 +18977,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1915</v>
       </c>
@@ -19056,7 +19003,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1350</v>
       </c>
@@ -19082,7 +19029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1351</v>
       </c>
@@ -19108,7 +19055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1353</v>
       </c>
@@ -19134,7 +19081,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1329</v>
       </c>
@@ -19151,16 +19098,16 @@
         <v>2319</v>
       </c>
       <c r="F410" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
       <c r="G410" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H410" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1363</v>
       </c>
@@ -19186,7 +19133,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1920</v>
       </c>
@@ -19212,7 +19159,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1917</v>
       </c>
@@ -19238,7 +19185,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1922</v>
       </c>
@@ -19264,7 +19211,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1925</v>
       </c>
@@ -19290,7 +19237,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1928</v>
       </c>
@@ -19316,7 +19263,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1931</v>
       </c>
@@ -19342,7 +19289,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1933</v>
       </c>
@@ -19368,12 +19315,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>2595</v>
+        <v>2577</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>2594</v>
+        <v>2576</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>1929</v>
@@ -19394,7 +19341,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1935</v>
       </c>
@@ -19420,7 +19367,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1937</v>
       </c>
@@ -19446,7 +19393,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1939</v>
       </c>
@@ -19472,7 +19419,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1941</v>
       </c>
@@ -19498,7 +19445,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1944</v>
       </c>
@@ -19524,7 +19471,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1408</v>
       </c>
@@ -19550,15 +19497,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1946</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>1945</v>
       </c>
-      <c r="C426" t="s">
-        <v>2398</v>
+      <c r="C426" s="2" t="s">
+        <v>1945</v>
       </c>
       <c r="D426" t="s">
         <v>521</v>
@@ -19576,7 +19523,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1948</v>
       </c>
@@ -19602,7 +19549,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1951</v>
       </c>
@@ -19628,7 +19575,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1167</v>
       </c>
@@ -19654,12 +19601,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>2526</v>
+        <v>2508</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>2525</v>
+        <v>2507</v>
       </c>
       <c r="C430" t="s">
         <v>767</v>
@@ -19680,7 +19627,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1165</v>
       </c>
@@ -19706,7 +19653,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1166</v>
       </c>
@@ -19732,18 +19679,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>2597</v>
+        <v>2579</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>2596</v>
+        <v>2578</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>2599</v>
+        <v>2581</v>
       </c>
       <c r="D433" t="s">
-        <v>2598</v>
+        <v>2580</v>
       </c>
       <c r="E433" t="s">
         <v>135</v>
@@ -19758,7 +19705,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1164</v>
       </c>
@@ -19784,7 +19731,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1119</v>
       </c>
@@ -19795,7 +19742,7 @@
         <v>719</v>
       </c>
       <c r="D435" t="s">
-        <v>2411</v>
+        <v>2393</v>
       </c>
       <c r="E435" t="s">
         <v>71</v>
@@ -19810,7 +19757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1120</v>
       </c>
@@ -19821,7 +19768,7 @@
         <v>72</v>
       </c>
       <c r="D436" t="s">
-        <v>2411</v>
+        <v>2393</v>
       </c>
       <c r="E436" t="s">
         <v>71</v>
@@ -19836,24 +19783,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>2491</v>
+        <v>2473</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>2449</v>
+        <v>2431</v>
       </c>
       <c r="C437" t="s">
         <v>72</v>
       </c>
       <c r="D437" t="s">
-        <v>2411</v>
+        <v>2393</v>
       </c>
       <c r="E437" t="s">
         <v>71</v>
       </c>
       <c r="F437" t="s">
-        <v>2481</v>
+        <v>2463</v>
       </c>
       <c r="G437" t="s">
         <v>6</v>
@@ -19862,7 +19809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1954</v>
       </c>
@@ -19888,7 +19835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1168</v>
       </c>
@@ -19914,7 +19861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1169</v>
       </c>
@@ -19940,7 +19887,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1463</v>
       </c>
@@ -19957,7 +19904,7 @@
         <v>578</v>
       </c>
       <c r="F441" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
       <c r="G441" t="s">
         <v>528</v>
@@ -19966,7 +19913,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1431</v>
       </c>
@@ -19983,7 +19930,7 @@
         <v>561</v>
       </c>
       <c r="F442" t="s">
-        <v>2415</v>
+        <v>2397</v>
       </c>
       <c r="G442" t="s">
         <v>528</v>
@@ -19992,15 +19939,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>2601</v>
+        <v>2583</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>2600</v>
+        <v>2582</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>2602</v>
+        <v>2584</v>
       </c>
       <c r="D443" t="s">
         <v>562</v>
@@ -20009,7 +19956,7 @@
         <v>561</v>
       </c>
       <c r="F443" t="s">
-        <v>2415</v>
+        <v>2397</v>
       </c>
       <c r="G443" t="s">
         <v>528</v>
@@ -20018,7 +19965,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1434</v>
       </c>
@@ -20035,7 +19982,7 @@
         <v>561</v>
       </c>
       <c r="F444" t="s">
-        <v>2415</v>
+        <v>2397</v>
       </c>
       <c r="G444" t="s">
         <v>528</v>
@@ -20044,7 +19991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1435</v>
       </c>
@@ -20061,7 +20008,7 @@
         <v>561</v>
       </c>
       <c r="F445" t="s">
-        <v>2415</v>
+        <v>2397</v>
       </c>
       <c r="G445" t="s">
         <v>528</v>
@@ -20070,7 +20017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1444</v>
       </c>
@@ -20096,7 +20043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1445</v>
       </c>
@@ -20122,7 +20069,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1468</v>
       </c>
@@ -20148,7 +20095,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1957</v>
       </c>
@@ -20174,7 +20121,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1960</v>
       </c>
@@ -20200,7 +20147,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1963</v>
       </c>
@@ -20226,7 +20173,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1966</v>
       </c>
@@ -20252,7 +20199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1969</v>
       </c>
@@ -20278,7 +20225,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1972</v>
       </c>
@@ -20304,7 +20251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1975</v>
       </c>
@@ -20330,7 +20277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1326</v>
       </c>
@@ -20344,19 +20291,19 @@
         <v>384</v>
       </c>
       <c r="E456" t="s">
-        <v>2434</v>
+        <v>2416</v>
       </c>
       <c r="F456" t="s">
-        <v>2434</v>
+        <v>2416</v>
       </c>
       <c r="G456" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H456" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1400</v>
       </c>
@@ -20382,7 +20329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1313</v>
       </c>
@@ -20408,15 +20355,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
-        <v>2604</v>
+        <v>2586</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>2603</v>
+        <v>2585</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>2605</v>
+        <v>2587</v>
       </c>
       <c r="D459" t="s">
         <v>583</v>
@@ -20434,7 +20381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1978</v>
       </c>
@@ -20460,15 +20407,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1981</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>1980</v>
       </c>
-      <c r="C461" t="s">
-        <v>2399</v>
+      <c r="C461" s="2" t="s">
+        <v>1980</v>
       </c>
       <c r="D461" t="s">
         <v>583</v>
@@ -20486,12 +20433,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1454</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>2606</v>
+        <v>2588</v>
       </c>
       <c r="C462" t="s">
         <v>1048</v>
@@ -20512,7 +20459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1122</v>
       </c>
@@ -20538,7 +20485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1121</v>
       </c>
@@ -20564,12 +20511,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1210</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>2607</v>
+        <v>2589</v>
       </c>
       <c r="C465" t="s">
         <v>809</v>
@@ -20590,7 +20537,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1117</v>
       </c>
@@ -20616,7 +20563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1378</v>
       </c>
@@ -20642,15 +20589,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1983</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="C468" t="s">
-        <v>2354</v>
+      <c r="C468" s="2" t="s">
+        <v>1982</v>
       </c>
       <c r="D468" t="s">
         <v>2354</v>
@@ -20668,15 +20615,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1985</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C469" t="s">
-        <v>2354</v>
+      <c r="C469" s="2" t="s">
+        <v>1984</v>
       </c>
       <c r="D469" t="s">
         <v>2354</v>
@@ -20694,7 +20641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1987</v>
       </c>
@@ -20720,7 +20667,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1990</v>
       </c>
@@ -20746,7 +20693,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1992</v>
       </c>
@@ -20772,7 +20719,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1181</v>
       </c>
@@ -20798,7 +20745,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1191</v>
       </c>
@@ -20824,7 +20771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1995</v>
       </c>
@@ -20850,7 +20797,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1998</v>
       </c>
@@ -20876,7 +20823,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>2001</v>
       </c>
@@ -20902,7 +20849,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>2003</v>
       </c>
@@ -20928,7 +20875,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>2006</v>
       </c>
@@ -20954,7 +20901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>2009</v>
       </c>
@@ -20980,7 +20927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1180</v>
       </c>
@@ -21006,7 +20953,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1189</v>
       </c>
@@ -21032,7 +20979,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>2011</v>
       </c>
@@ -21058,7 +21005,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1184</v>
       </c>
@@ -21084,7 +21031,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>2014</v>
       </c>
@@ -21110,7 +21057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>2017</v>
       </c>
@@ -21136,7 +21083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>2019</v>
       </c>
@@ -21162,7 +21109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>2022</v>
       </c>
@@ -21188,7 +21135,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>2024</v>
       </c>
@@ -21214,7 +21161,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1186</v>
       </c>
@@ -21240,7 +21187,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>2027</v>
       </c>
@@ -21266,7 +21213,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>2030</v>
       </c>
@@ -21292,7 +21239,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>2032</v>
       </c>
@@ -21318,7 +21265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1192</v>
       </c>
@@ -21344,7 +21291,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1190</v>
       </c>
@@ -21370,7 +21317,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>2035</v>
       </c>
@@ -21396,7 +21343,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>2038</v>
       </c>
@@ -21422,7 +21369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1185</v>
       </c>
@@ -21448,7 +21395,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1183</v>
       </c>
@@ -21474,7 +21421,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>2040</v>
       </c>
@@ -21500,7 +21447,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>2043</v>
       </c>
@@ -21526,7 +21473,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1187</v>
       </c>
@@ -21552,7 +21499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>2048</v>
       </c>
@@ -21578,7 +21525,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>2045</v>
       </c>
@@ -21604,7 +21551,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>2050</v>
       </c>
@@ -21630,7 +21577,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>2052</v>
       </c>
@@ -21656,7 +21603,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>2055</v>
       </c>
@@ -21682,7 +21629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>2057</v>
       </c>
@@ -21708,7 +21655,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>2059</v>
       </c>
@@ -21734,7 +21681,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>2061</v>
       </c>
@@ -21760,7 +21707,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>2063</v>
       </c>
@@ -21786,7 +21733,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>2066</v>
       </c>
@@ -21812,7 +21759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>2068</v>
       </c>
@@ -21838,7 +21785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>2071</v>
       </c>
@@ -21864,7 +21811,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>2074</v>
       </c>
@@ -21890,7 +21837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>2077</v>
       </c>
@@ -21916,7 +21863,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>2079</v>
       </c>
@@ -21942,7 +21889,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1188</v>
       </c>
@@ -21968,7 +21915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1253</v>
       </c>
@@ -21994,15 +21941,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
-        <v>2609</v>
+        <v>2591</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>2608</v>
+        <v>2590</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2610</v>
+        <v>2592</v>
       </c>
       <c r="D520" t="s">
         <v>244</v>
@@ -22020,7 +21967,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1230</v>
       </c>
@@ -22046,7 +21993,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>2082</v>
       </c>
@@ -22072,7 +22019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1306</v>
       </c>
@@ -22098,9 +22045,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>2517</v>
+        <v>2499</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>533</v>
@@ -22124,7 +22071,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1409</v>
       </c>
@@ -22150,7 +22097,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1194</v>
       </c>
@@ -22176,7 +22123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1193</v>
       </c>
@@ -22202,15 +22149,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
-        <v>2612</v>
+        <v>2594</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>2611</v>
+        <v>2593</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>2613</v>
+        <v>2595</v>
       </c>
       <c r="D528" t="s">
         <v>193</v>
@@ -22228,7 +22175,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>2085</v>
       </c>
@@ -22254,7 +22201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>2088</v>
       </c>
@@ -22280,7 +22227,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>2091</v>
       </c>
@@ -22306,7 +22253,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>2094</v>
       </c>
@@ -22332,7 +22279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>2098</v>
       </c>
@@ -22358,7 +22305,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>2096</v>
       </c>
@@ -22384,7 +22331,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>2100</v>
       </c>
@@ -22410,7 +22357,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>2108</v>
       </c>
@@ -22436,7 +22383,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>2102</v>
       </c>
@@ -22462,7 +22409,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>2104</v>
       </c>
@@ -22488,7 +22435,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>2106</v>
       </c>
@@ -22514,7 +22461,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1208</v>
       </c>
@@ -22525,7 +22472,7 @@
         <v>215</v>
       </c>
       <c r="D540" t="s">
-        <v>2614</v>
+        <v>2596</v>
       </c>
       <c r="E540" t="s">
         <v>214</v>
@@ -22540,7 +22487,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1207</v>
       </c>
@@ -22551,7 +22498,7 @@
         <v>807</v>
       </c>
       <c r="D541" t="s">
-        <v>2614</v>
+        <v>2596</v>
       </c>
       <c r="E541" t="s">
         <v>214</v>
@@ -22566,7 +22513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>2110</v>
       </c>
@@ -22592,7 +22539,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1478</v>
       </c>
@@ -22606,7 +22553,7 @@
         <v>654</v>
       </c>
       <c r="E543" t="s">
-        <v>2433</v>
+        <v>2415</v>
       </c>
       <c r="F543" t="s">
         <v>2312</v>
@@ -22618,7 +22565,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>2113</v>
       </c>
@@ -22644,7 +22591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>2276</v>
       </c>
@@ -22670,15 +22617,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>2292</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>2291</v>
       </c>
-      <c r="C546" t="s">
-        <v>2405</v>
+      <c r="C546" s="2" t="s">
+        <v>2291</v>
       </c>
       <c r="D546" t="s">
         <v>2384</v>
@@ -22696,21 +22643,21 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>2616</v>
+        <v>2598</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>2615</v>
+        <v>2597</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>2619</v>
+        <v>2601</v>
       </c>
       <c r="D547" t="s">
-        <v>2618</v>
+        <v>2600</v>
       </c>
       <c r="E547" t="s">
-        <v>2617</v>
+        <v>2599</v>
       </c>
       <c r="F547" t="s">
         <v>2324</v>
@@ -22722,15 +22669,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>2492</v>
+        <v>2474</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>2450</v>
+        <v>2432</v>
       </c>
       <c r="C548" t="s">
-        <v>2476</v>
+        <v>2458</v>
       </c>
       <c r="D548" t="s">
         <v>633</v>
@@ -22748,7 +22695,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>2116</v>
       </c>
@@ -22774,33 +22721,33 @@
         <v>670</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>2493</v>
+        <v>2475</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>2451</v>
+        <v>2433</v>
       </c>
       <c r="C550" t="s">
-        <v>2477</v>
+        <v>2459</v>
       </c>
       <c r="D550" t="s">
-        <v>2460</v>
+        <v>2442</v>
       </c>
       <c r="E550" t="s">
-        <v>2483</v>
+        <v>2465</v>
       </c>
       <c r="F550" t="s">
-        <v>2459</v>
+        <v>2441</v>
       </c>
       <c r="G550" t="s">
-        <v>2482</v>
+        <v>2464</v>
       </c>
       <c r="H550" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>2305</v>
       </c>
@@ -22826,7 +22773,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1145</v>
       </c>
@@ -22852,7 +22799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1142</v>
       </c>
@@ -22878,7 +22825,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1141</v>
       </c>
@@ -22904,7 +22851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1316</v>
       </c>
@@ -22921,7 +22868,7 @@
         <v>363</v>
       </c>
       <c r="F555" t="s">
-        <v>2438</v>
+        <v>2420</v>
       </c>
       <c r="G555" t="s">
         <v>341</v>
@@ -22930,7 +22877,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1317</v>
       </c>
@@ -22947,7 +22894,7 @@
         <v>363</v>
       </c>
       <c r="F556" t="s">
-        <v>2438</v>
+        <v>2420</v>
       </c>
       <c r="G556" t="s">
         <v>341</v>
@@ -22956,12 +22903,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1114</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>2620</v>
+        <v>2602</v>
       </c>
       <c r="C557" t="s">
         <v>715</v>
@@ -22982,15 +22929,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>2494</v>
+        <v>2476</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>2452</v>
+        <v>2434</v>
       </c>
       <c r="C558" t="s">
-        <v>2478</v>
+        <v>2460</v>
       </c>
       <c r="D558" t="s">
         <v>60</v>
@@ -22999,7 +22946,7 @@
         <v>58</v>
       </c>
       <c r="F558" t="s">
-        <v>2484</v>
+        <v>2466</v>
       </c>
       <c r="G558" t="s">
         <v>6</v>
@@ -23008,7 +22955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1115</v>
       </c>
@@ -23034,7 +22981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1123</v>
       </c>
@@ -23060,7 +23007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1128</v>
       </c>
@@ -23086,7 +23033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1474</v>
       </c>
@@ -23100,7 +23047,7 @@
         <v>648</v>
       </c>
       <c r="E562" t="s">
-        <v>2433</v>
+        <v>2415</v>
       </c>
       <c r="F562" t="s">
         <v>2312</v>
@@ -23112,7 +23059,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>2119</v>
       </c>
@@ -23138,7 +23085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1088</v>
       </c>
@@ -23164,24 +23111,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>2622</v>
+        <v>2604</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>2621</v>
+        <v>2603</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>2626</v>
+        <v>2608</v>
       </c>
       <c r="D565" t="s">
-        <v>2625</v>
+        <v>2607</v>
       </c>
       <c r="E565" t="s">
-        <v>2624</v>
+        <v>2606</v>
       </c>
       <c r="F565" t="s">
-        <v>2623</v>
+        <v>2605</v>
       </c>
       <c r="G565" t="s">
         <v>377</v>
@@ -23190,7 +23137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1424</v>
       </c>
@@ -23201,7 +23148,7 @@
         <v>1018</v>
       </c>
       <c r="D566" t="s">
-        <v>2627</v>
+        <v>2609</v>
       </c>
       <c r="E566" t="s">
         <v>551</v>
@@ -23216,7 +23163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1452</v>
       </c>
@@ -23242,7 +23189,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1129</v>
       </c>
@@ -23268,7 +23215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1130</v>
       </c>
@@ -23294,7 +23241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>2302</v>
       </c>
@@ -23320,7 +23267,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>2279</v>
       </c>
@@ -23346,7 +23293,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1308</v>
       </c>
@@ -23372,7 +23319,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1311</v>
       </c>
@@ -23398,7 +23345,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1310</v>
       </c>
@@ -23424,7 +23371,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1315</v>
       </c>
@@ -23450,7 +23397,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1314</v>
       </c>
@@ -23476,7 +23423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1309</v>
       </c>
@@ -23502,7 +23449,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1439</v>
       </c>
@@ -23519,7 +23466,7 @@
         <v>575</v>
       </c>
       <c r="F578" t="s">
-        <v>2416</v>
+        <v>2398</v>
       </c>
       <c r="G578" t="s">
         <v>528</v>
@@ -23528,7 +23475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1252</v>
       </c>
@@ -23554,7 +23501,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1139</v>
       </c>
@@ -23580,15 +23527,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2629</v>
+        <v>2611</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>2628</v>
+        <v>2610</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>2630</v>
+        <v>2612</v>
       </c>
       <c r="D581" t="s">
         <v>113</v>
@@ -23606,7 +23553,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1273</v>
       </c>
@@ -23632,7 +23579,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>2122</v>
       </c>
@@ -23658,7 +23605,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1382</v>
       </c>
@@ -23684,7 +23631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1383</v>
       </c>
@@ -23710,7 +23657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1344</v>
       </c>
@@ -23736,7 +23683,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>2125</v>
       </c>
@@ -23762,7 +23709,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>2128</v>
       </c>
@@ -23788,7 +23735,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1203</v>
       </c>
@@ -23814,7 +23761,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1205</v>
       </c>
@@ -23840,7 +23787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1204</v>
       </c>
@@ -23866,7 +23813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1198</v>
       </c>
@@ -23892,7 +23839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1199</v>
       </c>
@@ -23918,18 +23865,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2632</v>
+        <v>2614</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>2631</v>
+        <v>2613</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>2634</v>
+        <v>2616</v>
       </c>
       <c r="D594" t="s">
-        <v>2633</v>
+        <v>2615</v>
       </c>
       <c r="E594" t="s">
         <v>534</v>
@@ -23944,7 +23891,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>2130</v>
       </c>
@@ -23970,7 +23917,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1275</v>
       </c>
@@ -23996,7 +23943,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1265</v>
       </c>
@@ -24022,7 +23969,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>2133</v>
       </c>
@@ -24048,7 +23995,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>2136</v>
       </c>
@@ -24074,15 +24021,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>2139</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>2138</v>
       </c>
-      <c r="C600" t="s">
-        <v>2400</v>
+      <c r="C600" s="2" t="s">
+        <v>2138</v>
       </c>
       <c r="D600" t="s">
         <v>291</v>
@@ -24100,7 +24047,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1146</v>
       </c>
@@ -24117,7 +24064,7 @@
         <v>127</v>
       </c>
       <c r="F601" t="s">
-        <v>2418</v>
+        <v>2400</v>
       </c>
       <c r="G601" t="s">
         <v>105</v>
@@ -24126,7 +24073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1300</v>
       </c>
@@ -24152,7 +24099,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1299</v>
       </c>
@@ -24178,7 +24125,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1318</v>
       </c>
@@ -24204,7 +24151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>2141</v>
       </c>
@@ -24230,7 +24177,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>2144</v>
       </c>
@@ -24256,7 +24203,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>2147</v>
       </c>
@@ -24282,7 +24229,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1182</v>
       </c>
@@ -24308,7 +24255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1331</v>
       </c>
@@ -24325,16 +24272,16 @@
         <v>2319</v>
       </c>
       <c r="F609" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
       <c r="G609" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H609" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1332</v>
       </c>
@@ -24351,16 +24298,16 @@
         <v>2319</v>
       </c>
       <c r="F610" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
       <c r="G610" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H610" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1333</v>
       </c>
@@ -24377,16 +24324,16 @@
         <v>2319</v>
       </c>
       <c r="F611" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
       <c r="G611" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H611" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1328</v>
       </c>
@@ -24403,16 +24350,16 @@
         <v>2319</v>
       </c>
       <c r="F612" t="s">
-        <v>2422</v>
+        <v>2404</v>
       </c>
       <c r="G612" t="s">
-        <v>2423</v>
+        <v>2405</v>
       </c>
       <c r="H612" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1355</v>
       </c>
@@ -24438,7 +24385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1354</v>
       </c>
@@ -24464,7 +24411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>2149</v>
       </c>
@@ -24490,7 +24437,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1423</v>
       </c>
@@ -24516,7 +24463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1266</v>
       </c>
@@ -24542,7 +24489,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1270</v>
       </c>
@@ -24568,7 +24515,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>2152</v>
       </c>
@@ -24594,7 +24541,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1271</v>
       </c>
@@ -24620,7 +24567,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1268</v>
       </c>
@@ -24646,7 +24593,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1269</v>
       </c>
@@ -24672,7 +24619,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1276</v>
       </c>
@@ -24698,7 +24645,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1294</v>
       </c>
@@ -24724,7 +24671,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1280</v>
       </c>
@@ -24750,7 +24697,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1289</v>
       </c>
@@ -24776,12 +24723,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1288</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>2635</v>
+        <v>2617</v>
       </c>
       <c r="C627" t="s">
         <v>884</v>
@@ -24802,7 +24749,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1292</v>
       </c>
@@ -24828,12 +24775,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1277</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>2636</v>
+        <v>2618</v>
       </c>
       <c r="C629" t="s">
         <v>874</v>
@@ -24854,7 +24801,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>2155</v>
       </c>
@@ -24880,7 +24827,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1281</v>
       </c>
@@ -24906,7 +24853,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1285</v>
       </c>
@@ -24932,7 +24879,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1284</v>
       </c>
@@ -24958,7 +24905,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1290</v>
       </c>
@@ -24984,12 +24931,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>2518</v>
+        <v>2500</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>2505</v>
+        <v>2487</v>
       </c>
       <c r="C635" t="s">
         <v>885</v>
@@ -25010,12 +24957,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1278</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>2637</v>
+        <v>2619</v>
       </c>
       <c r="C636" t="s">
         <v>875</v>
@@ -25036,7 +24983,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1286</v>
       </c>
@@ -25062,9 +25009,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>2519</v>
+        <v>2501</v>
       </c>
       <c r="B638" s="2" t="s">
         <v>317</v>
@@ -25088,9 +25035,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2520</v>
+        <v>2502</v>
       </c>
       <c r="B639" s="2" t="s">
         <v>326</v>
@@ -25114,7 +25061,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1283</v>
       </c>
@@ -25140,7 +25087,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1295</v>
       </c>
@@ -25166,7 +25113,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1296</v>
       </c>
@@ -25192,7 +25139,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1297</v>
       </c>
@@ -25218,7 +25165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1293</v>
       </c>
@@ -25244,7 +25191,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1282</v>
       </c>
@@ -25270,7 +25217,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>2158</v>
       </c>
@@ -25296,7 +25243,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1279</v>
       </c>
@@ -25322,7 +25269,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>2299</v>
       </c>
@@ -25348,9 +25295,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>2521</v>
+        <v>2503</v>
       </c>
       <c r="B649" s="2" t="s">
         <v>318</v>
@@ -25374,7 +25321,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1287</v>
       </c>
@@ -25400,7 +25347,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1291</v>
       </c>
@@ -25426,7 +25373,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1131</v>
       </c>
@@ -25452,7 +25399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1132</v>
       </c>
@@ -25478,7 +25425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1133</v>
       </c>
@@ -25504,7 +25451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>2282</v>
       </c>
@@ -25530,9 +25477,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>2408</v>
+        <v>2390</v>
       </c>
       <c r="B656" s="2" t="s">
         <v>97</v>
@@ -25556,7 +25503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1134</v>
       </c>
@@ -25582,7 +25529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1135</v>
       </c>
@@ -25608,12 +25555,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>2639</v>
+        <v>2621</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>2638</v>
+        <v>2620</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>1014</v>
@@ -25634,7 +25581,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>2161</v>
       </c>
@@ -25642,7 +25589,7 @@
         <v>2160</v>
       </c>
       <c r="C660" t="s">
-        <v>2707</v>
+        <v>2689</v>
       </c>
       <c r="D660" t="s">
         <v>545</v>
@@ -25660,7 +25607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>2163</v>
       </c>
@@ -25686,7 +25633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>2166</v>
       </c>
@@ -25712,7 +25659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>2169</v>
       </c>
@@ -25738,7 +25685,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>2172</v>
       </c>
@@ -25764,7 +25711,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1349</v>
       </c>
@@ -25790,7 +25737,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>2175</v>
       </c>
@@ -25816,7 +25763,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>2178</v>
       </c>
@@ -25842,7 +25789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1438</v>
       </c>
@@ -25868,15 +25815,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="2" t="s">
-        <v>2641</v>
+        <v>2623</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>2640</v>
+        <v>2622</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>2642</v>
+        <v>2624</v>
       </c>
       <c r="D669" t="s">
         <v>570</v>
@@ -25894,9 +25841,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>2522</v>
+        <v>2504</v>
       </c>
       <c r="B670" s="2" t="s">
         <v>591</v>
@@ -25920,12 +25867,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>2644</v>
+        <v>2626</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>2643</v>
+        <v>2625</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>1039</v>
@@ -25946,7 +25893,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1436</v>
       </c>
@@ -25972,7 +25919,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1437</v>
       </c>
@@ -25998,15 +25945,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>2646</v>
+        <v>2628</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>2645</v>
+        <v>2627</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>2647</v>
+        <v>2629</v>
       </c>
       <c r="D674" t="s">
         <v>570</v>
@@ -26024,15 +25971,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>2649</v>
+        <v>2631</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>2648</v>
+        <v>2630</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>2650</v>
+        <v>2632</v>
       </c>
       <c r="D675" t="s">
         <v>570</v>
@@ -26050,7 +25997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1325</v>
       </c>
@@ -26076,7 +26023,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1481</v>
       </c>
@@ -26102,15 +26049,15 @@
         <v>663</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>2181</v>
       </c>
       <c r="B678" s="2" t="s">
         <v>2180</v>
       </c>
-      <c r="C678" t="s">
-        <v>2401</v>
+      <c r="C678" s="2" t="s">
+        <v>2180</v>
       </c>
       <c r="D678" t="s">
         <v>2367</v>
@@ -26128,7 +26075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1442</v>
       </c>
@@ -26154,7 +26101,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1136</v>
       </c>
@@ -26180,12 +26127,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>2523</v>
+        <v>2505</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>2651</v>
+        <v>2633</v>
       </c>
       <c r="C681" t="s">
         <v>736</v>
@@ -26206,15 +26153,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>2653</v>
+        <v>2635</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>2652</v>
+        <v>2634</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>2654</v>
+        <v>2636</v>
       </c>
       <c r="D682" t="s">
         <v>101</v>
@@ -26232,12 +26179,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>2504</v>
+        <v>2486</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>2413</v>
+        <v>2395</v>
       </c>
       <c r="C683" t="s">
         <v>103</v>
@@ -26258,7 +26205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>2285</v>
       </c>
@@ -26284,7 +26231,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>2183</v>
       </c>
@@ -26310,7 +26257,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>2186</v>
       </c>
@@ -26336,7 +26283,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1143</v>
       </c>
@@ -26353,7 +26300,7 @@
         <v>122</v>
       </c>
       <c r="F687" t="s">
-        <v>2419</v>
+        <v>2401</v>
       </c>
       <c r="G687" t="s">
         <v>105</v>
@@ -26362,7 +26309,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1124</v>
       </c>
@@ -26388,7 +26335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1125</v>
       </c>
@@ -26414,7 +26361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1126</v>
       </c>
@@ -26440,41 +26387,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>2656</v>
+        <v>2638</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>2655</v>
+        <v>2637</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>2658</v>
+        <v>2640</v>
       </c>
       <c r="D691" t="s">
-        <v>2657</v>
+        <v>2639</v>
       </c>
       <c r="E691" t="s">
-        <v>2586</v>
+        <v>2568</v>
       </c>
       <c r="F691" t="s">
-        <v>2585</v>
+        <v>2567</v>
       </c>
       <c r="G691" t="s">
-        <v>2584</v>
+        <v>2566</v>
       </c>
       <c r="H691" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>2189</v>
       </c>
       <c r="B692" s="2" t="s">
         <v>2188</v>
       </c>
-      <c r="C692" t="s">
-        <v>2369</v>
+      <c r="C692" s="2" t="s">
+        <v>2188</v>
       </c>
       <c r="D692" t="s">
         <v>2369</v>
@@ -26492,9 +26439,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>2524</v>
+        <v>2506</v>
       </c>
       <c r="B693" s="2" t="s">
         <v>433</v>
@@ -26518,7 +26465,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>2296</v>
       </c>
@@ -26544,7 +26491,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>2191</v>
       </c>
@@ -26570,7 +26517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1357</v>
       </c>
@@ -26596,7 +26543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>2203</v>
       </c>
@@ -26622,7 +26569,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1361</v>
       </c>
@@ -26648,7 +26595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1362</v>
       </c>
@@ -26674,7 +26621,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1337</v>
       </c>
@@ -26700,7 +26647,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>2194</v>
       </c>
@@ -26726,7 +26673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>2197</v>
       </c>
@@ -26752,7 +26699,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>2200</v>
       </c>
@@ -26778,15 +26725,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>2206</v>
       </c>
       <c r="B704" s="2" t="s">
         <v>2205</v>
       </c>
-      <c r="C704" t="s">
-        <v>2402</v>
+      <c r="C704" s="2" t="s">
+        <v>2205</v>
       </c>
       <c r="D704" t="s">
         <v>400</v>
@@ -26804,15 +26751,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>2208</v>
       </c>
       <c r="B705" s="2" t="s">
         <v>2207</v>
       </c>
-      <c r="C705" t="s">
-        <v>2402</v>
+      <c r="C705" s="2" t="s">
+        <v>2207</v>
       </c>
       <c r="D705" t="s">
         <v>400</v>
@@ -26830,7 +26777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>2210</v>
       </c>
@@ -26856,7 +26803,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>2213</v>
       </c>
@@ -26882,7 +26829,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>2215</v>
       </c>
@@ -26908,7 +26855,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1095</v>
       </c>
@@ -26934,33 +26881,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>2660</v>
+        <v>2642</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>2659</v>
+        <v>2641</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>2665</v>
+        <v>2647</v>
       </c>
       <c r="D710" t="s">
-        <v>2664</v>
+        <v>2646</v>
       </c>
       <c r="E710" t="s">
-        <v>2663</v>
+        <v>2645</v>
       </c>
       <c r="F710" t="s">
-        <v>2662</v>
+        <v>2644</v>
       </c>
       <c r="G710" t="s">
-        <v>2662</v>
+        <v>2644</v>
       </c>
       <c r="H710" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1473</v>
       </c>
@@ -26974,7 +26921,7 @@
         <v>645</v>
       </c>
       <c r="E711" t="s">
-        <v>2433</v>
+        <v>2415</v>
       </c>
       <c r="F711" t="s">
         <v>2312</v>
@@ -26986,7 +26933,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1447</v>
       </c>
@@ -27012,7 +26959,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1453</v>
       </c>
@@ -27038,15 +26985,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>2667</v>
+        <v>2649</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>2666</v>
+        <v>2648</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>2668</v>
+        <v>2650</v>
       </c>
       <c r="D714" t="s">
         <v>595</v>
@@ -27064,18 +27011,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="2" t="s">
-        <v>2670</v>
+        <v>2652</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>2669</v>
+        <v>2651</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>2672</v>
+        <v>2654</v>
       </c>
       <c r="D715" t="s">
-        <v>2671</v>
+        <v>2653</v>
       </c>
       <c r="E715" t="s">
         <v>534</v>
@@ -27090,18 +27037,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="2" t="s">
-        <v>2674</v>
+        <v>2656</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>2673</v>
+        <v>2655</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>2675</v>
+        <v>2657</v>
       </c>
       <c r="D716" t="s">
-        <v>2671</v>
+        <v>2653</v>
       </c>
       <c r="E716" t="s">
         <v>534</v>
@@ -27116,18 +27063,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="2" t="s">
-        <v>2677</v>
+        <v>2659</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>2676</v>
+        <v>2658</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>2678</v>
+        <v>2660</v>
       </c>
       <c r="D717" t="s">
-        <v>2671</v>
+        <v>2653</v>
       </c>
       <c r="E717" t="s">
         <v>534</v>
@@ -27142,7 +27089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1466</v>
       </c>
@@ -27159,7 +27106,7 @@
         <v>622</v>
       </c>
       <c r="F718" t="s">
-        <v>2416</v>
+        <v>2398</v>
       </c>
       <c r="G718" t="s">
         <v>528</v>
@@ -27168,7 +27115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1384</v>
       </c>
@@ -27194,7 +27141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1385</v>
       </c>
@@ -27220,7 +27167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1401</v>
       </c>
@@ -27246,7 +27193,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1402</v>
       </c>
@@ -27272,24 +27219,24 @@
         <v>130</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="2" t="s">
-        <v>2680</v>
+        <v>2662</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>2679</v>
+        <v>2661</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>2684</v>
+        <v>2666</v>
       </c>
       <c r="D723" t="s">
-        <v>2683</v>
+        <v>2665</v>
       </c>
       <c r="E723" t="s">
-        <v>2682</v>
+        <v>2664</v>
       </c>
       <c r="F723" t="s">
-        <v>2681</v>
+        <v>2663</v>
       </c>
       <c r="G723" t="s">
         <v>528</v>
@@ -27298,33 +27245,33 @@
         <v>104</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>2686</v>
+        <v>2668</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>2685</v>
+        <v>2667</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>2688</v>
+        <v>2670</v>
       </c>
       <c r="D724" t="s">
-        <v>2687</v>
+        <v>2669</v>
       </c>
       <c r="E724" t="s">
-        <v>2586</v>
+        <v>2568</v>
       </c>
       <c r="F724" t="s">
-        <v>2585</v>
+        <v>2567</v>
       </c>
       <c r="G724" t="s">
-        <v>2584</v>
+        <v>2566</v>
       </c>
       <c r="H724" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1224</v>
       </c>
@@ -27350,15 +27297,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>2690</v>
+        <v>2672</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>2689</v>
+        <v>2671</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>2691</v>
+        <v>2673</v>
       </c>
       <c r="D726" t="s">
         <v>222</v>
@@ -27376,7 +27323,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1222</v>
       </c>
@@ -27402,7 +27349,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1223</v>
       </c>
@@ -27428,7 +27375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1211</v>
       </c>
@@ -27454,7 +27401,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1213</v>
       </c>
@@ -27480,7 +27427,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1214</v>
       </c>
@@ -27506,7 +27453,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1227</v>
       </c>
@@ -27532,7 +27479,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1215</v>
       </c>
@@ -27558,7 +27505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1228</v>
       </c>
@@ -27584,7 +27531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1226</v>
       </c>
@@ -27610,7 +27557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1217</v>
       </c>
@@ -27636,7 +27583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1219</v>
       </c>
@@ -27662,7 +27609,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1221</v>
       </c>
@@ -27688,7 +27635,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1216</v>
       </c>
@@ -27714,7 +27661,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1212</v>
       </c>
@@ -27740,7 +27687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1229</v>
       </c>
@@ -27766,7 +27713,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1220</v>
       </c>
@@ -27792,7 +27739,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1218</v>
       </c>
@@ -27818,12 +27765,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>2497</v>
+        <v>2479</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>2454</v>
+        <v>2436</v>
       </c>
       <c r="C744" t="s">
         <v>236</v>
@@ -27844,7 +27791,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1225</v>
       </c>
@@ -27870,7 +27817,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1467</v>
       </c>
@@ -27887,7 +27834,7 @@
         <v>622</v>
       </c>
       <c r="F746" t="s">
-        <v>2416</v>
+        <v>2398</v>
       </c>
       <c r="G746" t="s">
         <v>528</v>
@@ -27896,15 +27843,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>2495</v>
+        <v>2477</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>2455</v>
+        <v>2437</v>
       </c>
       <c r="C747" t="s">
-        <v>2467</v>
+        <v>2449</v>
       </c>
       <c r="D747" t="s">
         <v>625</v>
@@ -27913,7 +27860,7 @@
         <v>622</v>
       </c>
       <c r="F747" t="s">
-        <v>2416</v>
+        <v>2398</v>
       </c>
       <c r="G747" t="s">
         <v>528</v>
@@ -27922,7 +27869,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1399</v>
       </c>
@@ -27948,7 +27895,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1244</v>
       </c>
@@ -27974,7 +27921,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>2218</v>
       </c>
@@ -28000,7 +27947,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1246</v>
       </c>
@@ -28026,7 +27973,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1234</v>
       </c>
@@ -28052,7 +27999,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1235</v>
       </c>
@@ -28078,7 +28025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1249</v>
       </c>
@@ -28104,7 +28051,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1245</v>
       </c>
@@ -28130,15 +28077,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" s="2" t="s">
-        <v>2693</v>
+        <v>2675</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>2692</v>
+        <v>2674</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>2694</v>
+        <v>2676</v>
       </c>
       <c r="D756" t="s">
         <v>245</v>
@@ -28156,7 +28103,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>2221</v>
       </c>
@@ -28182,7 +28129,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1237</v>
       </c>
@@ -28208,7 +28155,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1233</v>
       </c>
@@ -28234,7 +28181,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>2224</v>
       </c>
@@ -28260,7 +28207,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1247</v>
       </c>
@@ -28286,7 +28233,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1243</v>
       </c>
@@ -28312,7 +28259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1255</v>
       </c>
@@ -28338,7 +28285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1238</v>
       </c>
@@ -28364,7 +28311,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1231</v>
       </c>
@@ -28390,7 +28337,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1239</v>
       </c>
@@ -28416,7 +28363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1242</v>
       </c>
@@ -28442,7 +28389,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1240</v>
       </c>
@@ -28468,7 +28415,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1248</v>
       </c>
@@ -28494,7 +28441,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1397</v>
       </c>
@@ -28520,15 +28467,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
-        <v>2696</v>
+        <v>2678</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>2695</v>
+        <v>2677</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>2697</v>
+        <v>2679</v>
       </c>
       <c r="D771" t="s">
         <v>245</v>
@@ -28546,7 +28493,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1241</v>
       </c>
@@ -28572,15 +28519,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
-        <v>2699</v>
+        <v>2681</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>2698</v>
+        <v>2680</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>2700</v>
+        <v>2682</v>
       </c>
       <c r="D773" t="s">
         <v>245</v>
@@ -28598,7 +28545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1254</v>
       </c>
@@ -28624,7 +28571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1232</v>
       </c>
@@ -28650,15 +28597,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>2227</v>
       </c>
       <c r="B776" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="C776" t="s">
-        <v>2403</v>
+      <c r="C776" s="2" t="s">
+        <v>2226</v>
       </c>
       <c r="D776" t="s">
         <v>245</v>
@@ -28676,15 +28623,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>2229</v>
       </c>
       <c r="B777" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="C777" t="s">
-        <v>2403</v>
+      <c r="C777" s="2" t="s">
+        <v>2228</v>
       </c>
       <c r="D777" t="s">
         <v>245</v>
@@ -28702,15 +28649,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>2231</v>
       </c>
       <c r="B778" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="C778" t="s">
-        <v>2403</v>
+      <c r="C778" s="2" t="s">
+        <v>2230</v>
       </c>
       <c r="D778" t="s">
         <v>245</v>
@@ -28728,7 +28675,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>2233</v>
       </c>
@@ -28754,7 +28701,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1251</v>
       </c>
@@ -28780,7 +28727,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1236</v>
       </c>
@@ -28806,7 +28753,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1250</v>
       </c>
@@ -28832,7 +28779,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>2236</v>
       </c>
@@ -28858,7 +28805,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>2239</v>
       </c>
@@ -28884,7 +28831,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1446</v>
       </c>
@@ -28910,7 +28857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1483</v>
       </c>
@@ -28933,10 +28880,10 @@
         <v>672</v>
       </c>
       <c r="H786" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1319</v>
       </c>
@@ -28962,7 +28909,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>2242</v>
       </c>
@@ -28988,7 +28935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1267</v>
       </c>
@@ -29014,7 +28961,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1443</v>
       </c>
@@ -29040,7 +28987,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1455</v>
       </c>
@@ -29066,7 +29013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1127</v>
       </c>
@@ -29092,12 +29039,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>2407</v>
+        <v>2389</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>2406</v>
+        <v>2388</v>
       </c>
       <c r="C793" t="s">
         <v>1077</v>
@@ -29118,7 +29065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1469</v>
       </c>
@@ -29144,7 +29091,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1470</v>
       </c>
@@ -29170,7 +29117,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1209</v>
       </c>
@@ -29196,7 +29143,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1089</v>
       </c>
@@ -29222,7 +29169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1472</v>
       </c>
@@ -29239,7 +29186,7 @@
         <v>644</v>
       </c>
       <c r="F798" t="s">
-        <v>2428</v>
+        <v>2410</v>
       </c>
       <c r="G798" t="s">
         <v>641</v>
@@ -29248,7 +29195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1475</v>
       </c>
@@ -29265,7 +29212,7 @@
         <v>644</v>
       </c>
       <c r="F799" t="s">
-        <v>2428</v>
+        <v>2410</v>
       </c>
       <c r="G799" t="s">
         <v>641</v>
@@ -29274,7 +29221,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>2245</v>
       </c>
@@ -29300,7 +29247,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1479</v>
       </c>
@@ -29317,7 +29264,7 @@
         <v>644</v>
       </c>
       <c r="F801" t="s">
-        <v>2428</v>
+        <v>2410</v>
       </c>
       <c r="G801" t="s">
         <v>641</v>
@@ -29326,15 +29273,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>2248</v>
       </c>
       <c r="B802" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="C802" t="s">
-        <v>2404</v>
+      <c r="C802" s="2" t="s">
+        <v>2247</v>
       </c>
       <c r="D802" t="s">
         <v>645</v>
@@ -29352,15 +29299,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>2250</v>
       </c>
       <c r="B803" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="C803" t="s">
-        <v>2404</v>
+      <c r="C803" s="2" t="s">
+        <v>2249</v>
       </c>
       <c r="D803" t="s">
         <v>645</v>
@@ -29378,15 +29325,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>2485</v>
+        <v>2467</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>2456</v>
+        <v>2438</v>
       </c>
       <c r="C804" t="s">
-        <v>2468</v>
+        <v>2450</v>
       </c>
       <c r="D804" t="s">
         <v>619</v>
@@ -29395,7 +29342,7 @@
         <v>578</v>
       </c>
       <c r="F804" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
       <c r="G804" t="s">
         <v>528</v>
@@ -29404,15 +29351,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>2702</v>
+        <v>2684</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>2701</v>
+        <v>2683</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>2468</v>
+        <v>2450</v>
       </c>
       <c r="D805" t="s">
         <v>619</v>
@@ -29421,7 +29368,7 @@
         <v>578</v>
       </c>
       <c r="F805" t="s">
-        <v>2703</v>
+        <v>2685</v>
       </c>
       <c r="G805" t="s">
         <v>528</v>
@@ -29430,15 +29377,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>2705</v>
+        <v>2687</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>2704</v>
+        <v>2686</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>2468</v>
+        <v>2450</v>
       </c>
       <c r="D806" t="s">
         <v>619</v>
@@ -29447,7 +29394,7 @@
         <v>578</v>
       </c>
       <c r="F806" t="s">
-        <v>2703</v>
+        <v>2685</v>
       </c>
       <c r="G806" t="s">
         <v>528</v>
@@ -29456,7 +29403,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1465</v>
       </c>
@@ -29473,7 +29420,7 @@
         <v>578</v>
       </c>
       <c r="F807" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
       <c r="G807" t="s">
         <v>528</v>
@@ -29482,7 +29429,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1462</v>
       </c>
@@ -29499,7 +29446,7 @@
         <v>578</v>
       </c>
       <c r="F808" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
       <c r="G808" t="s">
         <v>528</v>
@@ -29508,7 +29455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1464</v>
       </c>
@@ -29525,7 +29472,7 @@
         <v>578</v>
       </c>
       <c r="F809" t="s">
-        <v>2414</v>
+        <v>2396</v>
       </c>
       <c r="G809" t="s">
         <v>528</v>
@@ -29534,7 +29481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1195</v>
       </c>
@@ -29560,7 +29507,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1196</v>
       </c>
@@ -29586,7 +29533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>2252</v>
       </c>
@@ -29612,7 +29559,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1456</v>
       </c>
@@ -29623,7 +29570,7 @@
         <v>1050</v>
       </c>
       <c r="D813" t="s">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="E813" t="s">
         <v>534</v>
@@ -29638,7 +29585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1449</v>
       </c>
@@ -29649,7 +29596,7 @@
         <v>1043</v>
       </c>
       <c r="D814" t="s">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="E814" t="s">
         <v>534</v>
@@ -29664,7 +29611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1457</v>
       </c>
@@ -29675,7 +29622,7 @@
         <v>1051</v>
       </c>
       <c r="D815" t="s">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="E815" t="s">
         <v>534</v>
@@ -29690,7 +29637,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1458</v>
       </c>
@@ -29701,7 +29648,7 @@
         <v>609</v>
       </c>
       <c r="D816" t="s">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="E816" t="s">
         <v>534</v>
@@ -29716,7 +29663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1419</v>
       </c>
@@ -29727,7 +29674,7 @@
         <v>1012</v>
       </c>
       <c r="D817" t="s">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="E817" t="s">
         <v>534</v>
@@ -29742,7 +29689,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1459</v>
       </c>
@@ -29753,7 +29700,7 @@
         <v>1052</v>
       </c>
       <c r="D818" t="s">
-        <v>2706</v>
+        <v>2688</v>
       </c>
       <c r="E818" t="s">
         <v>534</v>
@@ -29768,7 +29715,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1460</v>
       </c>
@@ -29795,6 +29742,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H819">
+    <sortCondition ref="A2:A819"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>